--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C876CC54-3B0B-4992-A893-2F080B0DEACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A99A54-5FCB-46CC-8471-34ED7E5641DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3915" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Software Engineering</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -269,6 +266,10 @@
   </si>
   <si>
     <t>software</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Scraping</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1139,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1159,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1186,13 +1187,13 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1203,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="1">
         <v>2017</v>
@@ -1231,13 +1232,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>2016</v>
@@ -1246,7 +1247,7 @@
         <v>2017</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1261,13 +1262,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="1">
         <v>2013</v>
@@ -1276,7 +1277,7 @@
         <v>2016</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1291,16 +1292,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1319,31 +1320,31 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="L6" s="4"/>
     </row>
@@ -1355,34 +1356,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="199.5">
@@ -1393,34 +1394,34 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2308,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2323,18 +2324,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>4.5999999999999996</v>
@@ -2342,10 +2343,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -2353,10 +2354,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3.5</v>
@@ -2364,10 +2365,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2.5</v>
@@ -2375,10 +2376,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>3.5</v>
@@ -2386,10 +2387,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>3.5</v>
@@ -2397,10 +2398,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2408,10 +2409,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2419,10 +2420,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -2430,10 +2431,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>3.5</v>
@@ -2441,10 +2442,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2452,10 +2453,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2463,10 +2464,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2474,10 +2475,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
       </c>
       <c r="C15">
         <v>3.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A99A54-5FCB-46CC-8471-34ED7E5641DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CFACF-DA55-4C23-8B86-4D05EB6E7586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>section</t>
   </si>
@@ -270,6 +270,27 @@
   </si>
   <si>
     <t>Web Scraping</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. Workedon tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>development</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFA Level 1 Passed                                                                                                    Aug 2018 – Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFA Institute </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Present</t>
+  </si>
+  <si>
+    <t>Aug 2018</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1140,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1284,7 +1305,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="114">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1306,7 +1327,9 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1425,7 +1448,25 @@
       </c>
     </row>
     <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1467,7 +1508,6 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="H16" s="1"/>
@@ -2309,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2338,7 +2378,7 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>4.5999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2354,13 +2394,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2368,10 +2408,10 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2379,10 +2419,10 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>3.5</v>
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2390,7 +2430,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>3.5</v>
@@ -2401,18 +2441,18 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2426,7 +2466,7 @@
         <v>55</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2485,7 +2525,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{BA28F66E-87F6-4624-831E-AD072F5E39A6}"/>
+  <autoFilter ref="A1:C15" xr:uid="{BA28F66E-87F6-4624-831E-AD072F5E39A6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
+      <sortCondition ref="A1:A15"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CFACF-DA55-4C23-8B86-4D05EB6E7586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4B08E7-0F8A-413A-A2BB-35B18488E038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
   <si>
     <t>section</t>
   </si>
@@ -148,12 +148,6 @@
     <t>Finance Analyst</t>
   </si>
   <si>
-    <t>Improved reporting pipelines while utilising VBA and SmartView to automate processes</t>
-  </si>
-  <si>
-    <t>Migrated monthly financial reporting dashboards from excel-based to Power BI</t>
-  </si>
-  <si>
     <t>Assisted with the preparation of reconciliations of financial and operational data from different sources and provided recommendations to Finance Managers and Head of Schools</t>
   </si>
   <si>
@@ -186,15 +180,9 @@
     <t>Developed a billing system based on VBA and R which supports generating billing statements, email automation and aging analysis. This system significantly freed people from heavy and routine manual work, reduced 2 FTE (Full-time equivalent) and improved collecting accounts receivable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Developed a procedure to analyse data, identify discrepancies and design reporting mechanism, which allow on-time and accurate measure of the company performance. This procedure is still utilised and has been able to recover more than 120,000 AUD in the past 1 year, which otherwise would be lost because of the information inaccuracy. </t>
-  </si>
-  <si>
     <t>Built and maintained a MySQL finance database which helps finance department find discrepancies between forecast and real-time data, also responsible for designing data tables, managing permissions and setting up backups.</t>
   </si>
   <si>
-    <t>Worked as a consultant with a team of 5 co-workers from both China and Australia to establish an online invoicing system and successfully co-ordinated the project between finance and IT team.</t>
-  </si>
-  <si>
     <t>Provided training to co-workers on program I developed and wrote end-user manual.</t>
   </si>
   <si>
@@ -273,10 +261,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. Workedon tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>development</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -284,13 +268,73 @@
     <t>CFA Level 1 Passed                                                                                                    Aug 2018 – Present</t>
   </si>
   <si>
-    <t xml:space="preserve">CFA Institute </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Present</t>
   </si>
   <si>
     <t>Aug 2018</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. Worked on tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improved reporting pipelines utilising VBA , SmartView and R to automate processes and provide high-level quality controls.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Migrated monthly financial reporting dashboards from excel-based to Power BI. The migration saved more than 50% time comparing with excel-based method</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked as a consultant with a team of 5 co-workers from both China and Australia to establish an online invoicing system and successfully coordinated the project between finance and IT team.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed a procedure to analyse data, identify discrepancies and design reporting mechanism, which allow on-time and accurate measure of the company performance. This procedure is still utilized and has been able to recover more than 120,000 AUD in the past 1 year, which otherwise would be lost because of the information inaccuracy. </t>
+  </si>
+  <si>
+    <t>Utilised advanced BI tools(Power BI, Qlik Sense and Alteryx) to analyse large volume of complex data and present findings to business users in a clear and simple way</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provided clean documentation of  complex workflows ,code scripts as well as business processes. The documentation helps reproducible work and quality control.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>visuals</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>26 R Courses on Datacamp</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 Aug</t>
+  </si>
+  <si>
+    <t>CFA Institute (Click [here](https://basno.com/joqdkd6z){target="_blank"} to see badge)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datacamp (Click [here](https://www.ding-rui.org/en/2019/07/datacamp-courses/){target="_blank"} to see the list)  &lt;br&gt; Courses include: </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use SQL in R</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webscraping with R</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleansing, Transformation and Visualization of data</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting and Visualization using Rmarkdown, ggplot2 and Shiny</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -794,14 +838,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1159,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1173,7 +1220,10 @@
     <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="13" width="23.25" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="23.25" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1198,22 +1248,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1239,11 +1289,6 @@
       <c r="G2" s="1">
         <v>2019</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:13" ht="28.5">
       <c r="A3" t="s">
@@ -1267,13 +1312,9 @@
       <c r="G3" s="1">
         <v>2017</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="28.5">
       <c r="A4" t="s">
@@ -1297,13 +1338,9 @@
       <c r="G4" s="1">
         <v>2016</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="114">
       <c r="A5" t="s">
@@ -1322,18 +1359,20 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="128.25">
       <c r="A6" t="s">
@@ -1352,24 +1391,23 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="99.75">
       <c r="A7" t="s">
@@ -1379,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1388,28 +1426,28 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="199.5">
+    </row>
+    <row r="8" spans="1:13" ht="185.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1417,926 +1455,941 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="42.75">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" s="1"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:13">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:13">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18" spans="3:12">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="1"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="1"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="1"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="2"/>
       <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="2"/>
       <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="3:8">
       <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40" spans="3:8">
       <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="1"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="2"/>
       <c r="E41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="2"/>
       <c r="E45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="3:8">
       <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="2"/>
       <c r="E46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="3:8">
       <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="2"/>
       <c r="E48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="1"/>
-      <c r="H49" s="1"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="1"/>
-      <c r="H50" s="1"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="1"/>
-      <c r="H51" s="1"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="1"/>
-      <c r="H53" s="1"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54" spans="3:8">
       <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="1"/>
-      <c r="H54" s="1"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="3:8">
       <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="1"/>
-      <c r="H55" s="1"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56" spans="3:8">
       <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="1"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="3:8">
       <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="1"/>
-      <c r="H57" s="1"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="1"/>
-      <c r="H58" s="1"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="3:8">
       <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
+      <c r="D59" s="2"/>
       <c r="E59" s="1"/>
-      <c r="H59" s="1"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60" spans="3:8">
       <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="1"/>
-      <c r="H60" s="1"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61" spans="3:8">
       <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="1"/>
-      <c r="H61" s="1"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62" spans="3:8">
       <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="1"/>
-      <c r="H62" s="1"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63" spans="3:8">
       <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="1"/>
-      <c r="H63" s="1"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64" spans="3:8">
       <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="1"/>
-      <c r="H64" s="1"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65" spans="3:8">
       <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="1"/>
-      <c r="H65" s="1"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66" spans="3:8">
       <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="2"/>
       <c r="E66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="3:8">
       <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68" spans="3:8">
       <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="H68" s="5"/>
     </row>
     <row r="69" spans="3:8">
       <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70" spans="3:8">
       <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71" spans="3:8">
       <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72" spans="3:8">
       <c r="C72" s="1"/>
-      <c r="D72" s="3"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="H72" s="5"/>
     </row>
     <row r="73" spans="3:8">
       <c r="C73" s="1"/>
-      <c r="D73" s="3"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="H73" s="5"/>
     </row>
     <row r="74" spans="3:8">
       <c r="C74" s="1"/>
-      <c r="D74" s="3"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="H74" s="5"/>
     </row>
     <row r="75" spans="3:8">
       <c r="C75" s="1"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76" spans="3:8">
       <c r="C76" s="1"/>
-      <c r="D76" s="3"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77" spans="3:8">
       <c r="C77" s="1"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78" spans="3:8">
       <c r="C78" s="1"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79" spans="3:8">
       <c r="C79" s="1"/>
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80" spans="3:8">
       <c r="C80" s="1"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="1"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="1"/>
-      <c r="D82" s="3"/>
+      <c r="D82" s="2"/>
       <c r="E82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
+      <c r="D83" s="2"/>
       <c r="E83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="1"/>
-      <c r="D84" s="3"/>
+      <c r="D84" s="2"/>
       <c r="E84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="1"/>
-      <c r="D85" s="3"/>
+      <c r="D85" s="2"/>
       <c r="E85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="1"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="H86" s="5"/>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="1"/>
-      <c r="D87" s="3"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="H87" s="5"/>
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="1"/>
-      <c r="D88" s="3"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="1"/>
-      <c r="D89" s="3"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="H89" s="5"/>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="1"/>
-      <c r="D90" s="3"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="H90" s="5"/>
     </row>
     <row r="91" spans="3:8">
       <c r="C91" s="1"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="2"/>
       <c r="E91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92" spans="3:8">
       <c r="C92" s="1"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="2"/>
       <c r="E92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93" spans="3:8">
       <c r="C93" s="1"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="2"/>
       <c r="E93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94" spans="3:8">
       <c r="C94" s="1"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="1"/>
-      <c r="H94" s="1"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" s="1"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="2"/>
       <c r="E95" s="1"/>
-      <c r="H95" s="1"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="3:8">
       <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="2"/>
       <c r="E96" s="1"/>
-      <c r="H96" s="1"/>
+      <c r="H96" s="5"/>
     </row>
     <row r="97" spans="3:8">
       <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="2"/>
       <c r="E97" s="1"/>
-      <c r="H97" s="1"/>
+      <c r="H97" s="5"/>
     </row>
     <row r="98" spans="3:8">
       <c r="C98" s="1"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="2"/>
       <c r="E98" s="1"/>
-      <c r="H98" s="1"/>
+      <c r="H98" s="5"/>
     </row>
     <row r="99" spans="3:8">
       <c r="C99" s="1"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="2"/>
       <c r="E99" s="1"/>
-      <c r="H99" s="1"/>
+      <c r="H99" s="5"/>
     </row>
     <row r="100" spans="3:8">
       <c r="C100" s="1"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="2"/>
       <c r="E100" s="1"/>
-      <c r="H100" s="1"/>
+      <c r="H100" s="5"/>
     </row>
     <row r="101" spans="3:8">
       <c r="C101" s="1"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="2"/>
       <c r="E101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="H101" s="5"/>
     </row>
     <row r="102" spans="3:8">
       <c r="C102" s="1"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="2"/>
       <c r="E102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="H102" s="5"/>
     </row>
     <row r="103" spans="3:8">
       <c r="C103" s="1"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="2"/>
       <c r="E103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="H103" s="5"/>
     </row>
     <row r="104" spans="3:8">
       <c r="C104" s="1"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="2"/>
       <c r="E104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105" spans="3:8">
       <c r="C105" s="1"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="2"/>
       <c r="E105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106" spans="3:8">
       <c r="C106" s="1"/>
-      <c r="D106" s="3"/>
+      <c r="D106" s="2"/>
       <c r="E106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107" spans="3:8">
       <c r="C107" s="1"/>
-      <c r="D107" s="3"/>
+      <c r="D107" s="2"/>
       <c r="E107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" spans="3:8">
       <c r="C108" s="1"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="2"/>
       <c r="E108" s="1"/>
-      <c r="H108" s="1"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109" spans="3:8">
       <c r="C109" s="1"/>
-      <c r="D109" s="3"/>
+      <c r="D109" s="2"/>
       <c r="E109" s="1"/>
-      <c r="H109" s="1"/>
+      <c r="H109" s="5"/>
     </row>
     <row r="110" spans="3:8">
       <c r="C110" s="1"/>
-      <c r="D110" s="3"/>
+      <c r="D110" s="2"/>
       <c r="E110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111" spans="3:8">
       <c r="C111" s="1"/>
-      <c r="D111" s="3"/>
+      <c r="D111" s="2"/>
       <c r="E111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="H111" s="5"/>
     </row>
     <row r="112" spans="3:8">
       <c r="C112" s="1"/>
-      <c r="D112" s="3"/>
+      <c r="D112" s="2"/>
       <c r="E112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="H112" s="5"/>
     </row>
     <row r="113" spans="3:8">
       <c r="C113" s="1"/>
-      <c r="D113" s="3"/>
+      <c r="D113" s="2"/>
       <c r="E113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="H113" s="5"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
+      <c r="D114" s="2"/>
       <c r="E114" s="1"/>
-      <c r="H114" s="1"/>
+      <c r="H114" s="5"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="2"/>
       <c r="E115" s="1"/>
-      <c r="H115" s="1"/>
+      <c r="H115" s="5"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="2"/>
       <c r="E116" s="1"/>
-      <c r="H116" s="1"/>
+      <c r="H116" s="5"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
+      <c r="D117" s="2"/>
       <c r="E117" s="1"/>
-      <c r="H117" s="1"/>
+      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="3:8">
       <c r="C118" s="1"/>
-      <c r="D118" s="3"/>
+      <c r="D118" s="2"/>
       <c r="E118" s="1"/>
-      <c r="H118" s="1"/>
+      <c r="H118" s="5"/>
     </row>
     <row r="119" spans="3:8">
       <c r="C119" s="1"/>
-      <c r="D119" s="3"/>
+      <c r="D119" s="2"/>
       <c r="E119" s="1"/>
-      <c r="H119" s="1"/>
+      <c r="H119" s="5"/>
     </row>
     <row r="120" spans="3:8">
       <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="2"/>
       <c r="E120" s="1"/>
-      <c r="H120" s="1"/>
+      <c r="H120" s="5"/>
     </row>
     <row r="121" spans="3:8">
       <c r="C121" s="1"/>
-      <c r="D121" s="3"/>
+      <c r="D121" s="2"/>
       <c r="E121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="H121" s="5"/>
     </row>
     <row r="122" spans="3:8">
       <c r="C122" s="1"/>
-      <c r="D122" s="3"/>
+      <c r="D122" s="2"/>
       <c r="E122" s="1"/>
-      <c r="H122" s="1"/>
+      <c r="H122" s="5"/>
     </row>
     <row r="123" spans="3:8">
       <c r="C123" s="1"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="2"/>
       <c r="E123" s="1"/>
-      <c r="H123" s="1"/>
+      <c r="H123" s="5"/>
     </row>
     <row r="124" spans="3:8">
       <c r="C124" s="1"/>
-      <c r="D124" s="3"/>
+      <c r="D124" s="2"/>
       <c r="E124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="H124" s="5"/>
     </row>
     <row r="125" spans="3:8">
       <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
+      <c r="D125" s="2"/>
       <c r="E125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="H125" s="5"/>
     </row>
     <row r="126" spans="3:8">
       <c r="C126" s="1"/>
-      <c r="D126" s="3"/>
+      <c r="D126" s="2"/>
       <c r="E126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="H126" s="5"/>
     </row>
     <row r="127" spans="3:8">
       <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
+      <c r="D127" s="2"/>
       <c r="E127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="H127" s="5"/>
     </row>
     <row r="128" spans="3:8">
       <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
+      <c r="D128" s="2"/>
       <c r="E128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="H128" s="5"/>
     </row>
     <row r="129" spans="3:8">
       <c r="C129" s="1"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="2"/>
       <c r="E129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="H129" s="5"/>
     </row>
     <row r="130" spans="3:8">
       <c r="C130" s="1"/>
-      <c r="D130" s="3"/>
+      <c r="D130" s="2"/>
       <c r="E130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131" spans="3:8">
       <c r="C131" s="1"/>
-      <c r="D131" s="3"/>
+      <c r="D131" s="2"/>
       <c r="E131" s="1"/>
-      <c r="H131" s="1"/>
+      <c r="H131" s="5"/>
     </row>
     <row r="132" spans="3:8">
       <c r="C132" s="1"/>
-      <c r="D132" s="3"/>
+      <c r="D132" s="2"/>
       <c r="E132" s="1"/>
-      <c r="H132" s="1"/>
+      <c r="H132" s="5"/>
     </row>
     <row r="133" spans="3:8">
       <c r="C133" s="1"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="2"/>
       <c r="E133" s="1"/>
-      <c r="H133" s="1"/>
+      <c r="H133" s="5"/>
     </row>
     <row r="134" spans="3:8">
       <c r="C134" s="1"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="2"/>
       <c r="E134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="H134" s="5"/>
     </row>
     <row r="135" spans="3:8">
       <c r="C135" s="1"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="1"/>
-      <c r="H135" s="1"/>
+      <c r="H135" s="5"/>
     </row>
     <row r="136" spans="3:8">
       <c r="C136" s="1"/>
-      <c r="D136" s="3"/>
+      <c r="D136" s="2"/>
       <c r="E136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137" spans="3:8">
       <c r="C137" s="1"/>
-      <c r="D137" s="3"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="1"/>
-      <c r="H137" s="1"/>
+      <c r="H137" s="5"/>
     </row>
     <row r="138" spans="3:8">
       <c r="C138" s="1"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="2"/>
       <c r="E138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="H138" s="5"/>
     </row>
     <row r="139" spans="3:8">
       <c r="C139" s="1"/>
-      <c r="D139" s="3"/>
+      <c r="D139" s="2"/>
       <c r="E139" s="1"/>
-      <c r="H139" s="1"/>
+      <c r="H139" s="5"/>
     </row>
     <row r="140" spans="3:8">
       <c r="C140" s="1"/>
-      <c r="D140" s="3"/>
+      <c r="D140" s="2"/>
       <c r="E140" s="1"/>
-      <c r="H140" s="1"/>
+      <c r="H140" s="5"/>
     </row>
     <row r="141" spans="3:8">
       <c r="C141" s="1"/>
-      <c r="D141" s="3"/>
+      <c r="D141" s="2"/>
       <c r="E141" s="1"/>
-      <c r="H141" s="1"/>
+      <c r="H141" s="5"/>
     </row>
     <row r="142" spans="3:8">
       <c r="C142" s="1"/>
-      <c r="D142" s="3"/>
+      <c r="D142" s="2"/>
       <c r="E142" s="1"/>
-      <c r="H142" s="1"/>
+      <c r="H142" s="5"/>
     </row>
     <row r="143" spans="3:8">
       <c r="C143" s="1"/>
-      <c r="D143" s="3"/>
+      <c r="D143" s="2"/>
       <c r="E143" s="1"/>
-      <c r="H143" s="1"/>
+      <c r="H143" s="5"/>
     </row>
     <row r="144" spans="3:8">
       <c r="C144" s="1"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="2"/>
       <c r="E144" s="1"/>
-      <c r="H144" s="1"/>
+      <c r="H144" s="5"/>
     </row>
     <row r="145" spans="3:8">
       <c r="C145" s="1"/>
-      <c r="D145" s="3"/>
+      <c r="D145" s="2"/>
       <c r="E145" s="1"/>
-      <c r="H145" s="1"/>
+      <c r="H145" s="5"/>
     </row>
     <row r="146" spans="3:8">
       <c r="C146" s="1"/>
-      <c r="D146" s="3"/>
+      <c r="D146" s="2"/>
       <c r="E146" s="1"/>
-      <c r="H146" s="1"/>
+      <c r="H146" s="5"/>
     </row>
     <row r="147" spans="3:8">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="H147" s="1"/>
+      <c r="H147" s="5"/>
     </row>
     <row r="148" spans="3:8">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="H148" s="1"/>
+      <c r="H148" s="5"/>
     </row>
     <row r="149" spans="3:8">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="H149" s="1"/>
+      <c r="H149" s="5"/>
     </row>
     <row r="150" spans="3:8">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="H150" s="1"/>
+      <c r="H150" s="5"/>
     </row>
     <row r="151" spans="3:8">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="H151" s="1"/>
+      <c r="H151" s="5"/>
     </row>
     <row r="152" spans="3:8">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="H152" s="1"/>
+      <c r="H152" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2347,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2372,7 +2425,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2383,7 +2436,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2394,18 +2447,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2416,10 +2469,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>4.9000000000000004</v>
@@ -2427,7 +2480,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2438,10 +2491,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -2449,10 +2502,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2460,10 +2513,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2471,10 +2524,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>3.5</v>
@@ -2482,10 +2535,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2493,10 +2546,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2504,10 +2557,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2515,13 +2568,24 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C15">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4B08E7-0F8A-413A-A2BB-35B18488E038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6B6FD-D2E9-4B2D-838E-A3FBA7C2BD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>CFA Level 1 Passed                                                                                                    Aug 2018 – Present</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Present</t>
   </si>
   <si>
@@ -335,6 +332,10 @@
   </si>
   <si>
     <t>Reporting and Visualization using Rmarkdown, ggplot2 and Shiny</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFA Level 1 Passed</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1210,7 @@
   <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1365,13 +1366,13 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="128.25">
@@ -1397,10 +1398,10 @@
         <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>37</v>
@@ -1473,13 +1474,13 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>48</v>
@@ -1493,17 +1494,17 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="42.75">
@@ -1514,29 +1515,29 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2579,10 +2580,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6B6FD-D2E9-4B2D-838E-A3FBA7C2BD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4731A67-6594-4D04-8CFF-B3490053BF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>section</t>
   </si>
@@ -268,14 +268,6 @@
     <t xml:space="preserve"> Present</t>
   </si>
   <si>
-    <t>Aug 2018</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. Worked on tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Improved reporting pipelines utilising VBA , SmartView and R to automate processes and provide high-level quality controls.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -290,14 +282,6 @@
     <t xml:space="preserve">Developed a procedure to analyse data, identify discrepancies and design reporting mechanism, which allow on-time and accurate measure of the company performance. This procedure is still utilized and has been able to recover more than 120,000 AUD in the past 1 year, which otherwise would be lost because of the information inaccuracy. </t>
   </si>
   <si>
-    <t>Utilised advanced BI tools(Power BI, Qlik Sense and Alteryx) to analyse large volume of complex data and present findings to business users in a clear and simple way</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Provided clean documentation of  complex workflows ,code scripts as well as business processes. The documentation helps reproducible work and quality control.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>visuals</t>
   </si>
   <si>
@@ -336,6 +320,38 @@
   </si>
   <si>
     <t>CFA Level 1 Passed</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilised data analysis and visualisation techniques to provide clients with powerful business insight regarding their data. This would in turn help them make informed business decisions. Tools used include Alteryx, SQL, Power BI, Tableau and Qlik Sense.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 Aug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provisional member of Chartered Accountants ANZ</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties. Tools used include: Google App Script, Python and VBA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worked on tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Played a key role in mapping the existing business process of the organization with respect to data governance and management and suggesting appropriate business practices to modify them to meet their requirements.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attended meetings with multiple project stakeholders including internal and external clients to gather and document detailed data requirements.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1209,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1218,7 +1234,7 @@
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="23.25" style="3" customWidth="1"/>
@@ -1343,7 +1359,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="114">
+    <row r="5" spans="1:13" ht="142.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1366,13 +1382,22 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="128.25">
@@ -1398,10 +1423,10 @@
         <v>60</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>37</v>
@@ -1474,34 +1499,32 @@
         <v>46</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="28.5">
       <c r="A9" t="s">
         <v>68</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>69</v>
@@ -1515,33 +1538,51 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="1"/>
@@ -2580,10 +2621,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4731A67-6594-4D04-8CFF-B3490053BF5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8761F5-5CA6-48C1-9007-7A4E815B6E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
   <si>
     <t>section</t>
   </si>
@@ -151,9 +151,6 @@
     <t>Assisted with the preparation of reconciliations of financial and operational data from different sources and provided recommendations to Finance Managers and Head of Schools</t>
   </si>
   <si>
-    <t>Assisted with providing budget and forecast for multiple stakeholders</t>
-  </si>
-  <si>
     <t>Data Analyst Intern</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -353,6 +350,12 @@
   <si>
     <t>Attended meetings with multiple project stakeholders including internal and external clients to gather and document detailed data requirements.</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designed, developed and maintained standardized budget/forecast models, tools and guidelines to improve the accuracy, consistency, timeliness and quality of budgeting and forecasting throughout the Faculties and these are continued to be used across the University faculties.</t>
+  </si>
+  <si>
+    <t>Performed variance analysis, trend analysis and sensitivity analysis on daily requests. Assisting Senior Financial Analyst in providing insightful analysis, to track and report financial and non-financial KPIs.</t>
   </si>
 </sst>
 </file>
@@ -1225,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1243,7 +1246,7 @@
     <col min="14" max="15" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.5">
+    <row r="3" spans="1:15" ht="28.5">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5">
+    <row r="4" spans="1:15" ht="28.5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1359,7 +1362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="142.5">
+    <row r="5" spans="1:15" ht="142.5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1376,31 +1379,31 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="128.25">
+    </row>
+    <row r="6" spans="1:15" ht="171">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1417,25 +1420,30 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="99.75">
+      <c r="N6"/>
+      <c r="O6"/>
+    </row>
+    <row r="7" spans="1:15" ht="99.75">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1452,28 +1460,28 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="185.25">
+    </row>
+    <row r="8" spans="1:15" ht="185.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1481,128 +1489,128 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="28.5">
+    </row>
+    <row r="9" spans="1:15" ht="28.5">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="42.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="42.75">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="H16" s="5"/>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2478,7 +2486,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2489,7 +2497,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -2500,7 +2508,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2511,10 +2519,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <v>4.9000000000000004</v>
@@ -2522,7 +2530,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2533,10 +2541,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -2544,10 +2552,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2555,10 +2563,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2566,10 +2574,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>3.5</v>
@@ -2577,10 +2585,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2588,10 +2596,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2599,10 +2607,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2610,10 +2618,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -2621,10 +2629,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
         <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8761F5-5CA6-48C1-9007-7A4E815B6E25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E08B838-BAF8-4F08-BC4C-F8FDC2959C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>section</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Built and maintained a MySQL finance database which helps finance department find discrepancies between forecast and real-time data, also responsible for designing data tables, managing permissions and setting up backups.</t>
-  </si>
-  <si>
-    <t>Provided training to co-workers on program I developed and wrote end-user manual.</t>
   </si>
   <si>
     <t>Excel</t>
@@ -1226,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1379,28 +1376,28 @@
         <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="171">
@@ -1420,22 +1417,22 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="J6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>37</v>
@@ -1460,10 +1457,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>39</v>
@@ -1492,117 +1489,108 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="42.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="42.75">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="H13" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:15">
       <c r="C15" s="1"/>
@@ -1611,12 +1599,12 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:15">
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="H17" s="5"/>
@@ -1626,8 +1614,6 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="1"/>
@@ -1636,8 +1622,6 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="1"/>
@@ -1654,6 +1638,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="1"/>
@@ -1681,7 +1669,7 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="H26" s="5"/>
     </row>
@@ -2407,7 +2395,7 @@
     </row>
     <row r="147" spans="3:8">
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="D147" s="2"/>
       <c r="E147" s="1"/>
       <c r="H147" s="5"/>
     </row>
@@ -2440,6 +2428,12 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="3:8">
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="H153" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2475,7 +2469,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -2486,7 +2480,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2497,7 +2491,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -2508,7 +2502,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -2519,10 +2513,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>4.9000000000000004</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -2541,10 +2535,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -2552,10 +2546,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2563,10 +2557,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2574,10 +2568,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>3.5</v>
@@ -2585,10 +2579,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2596,10 +2590,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2607,10 +2601,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2618,10 +2612,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -2629,10 +2623,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E08B838-BAF8-4F08-BC4C-F8FDC2959C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DA2D9-D61A-4FE9-AAE0-66E3F0AA0C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Git</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -212,10 +209,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>R Package Developing</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>2020 Jan</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -251,10 +244,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Web Scraping</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>development</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -279,10 +268,6 @@
     <t>visuals</t>
   </si>
   <si>
-    <t>Javascript</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>26 R Courses on Datacamp</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -353,6 +338,22 @@
   </si>
   <si>
     <t>Performed variance analysis, trend analysis and sensitivity analysis on daily requests. Assisting Senior Financial Analyst in providing insightful analysis, to track and report financial and non-financial KPIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Work</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leadership</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1225,7 +1226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1248,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1275,13 +1276,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1292,13 +1293,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>2017</v>
@@ -1315,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1">
         <v>2016</v>
@@ -1330,7 +1331,7 @@
         <v>2017</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.5">
@@ -1341,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="1">
         <v>2013</v>
@@ -1356,7 +1357,7 @@
         <v>2016</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="142.5">
@@ -1367,37 +1368,37 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="171">
@@ -1408,34 +1409,34 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -1448,34 +1449,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="185.25">
@@ -1486,104 +1487,104 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.5">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="42.75">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2446,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2461,29 +2462,29 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>4.9000000000000004</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2.5</v>
@@ -2491,10 +2492,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -2502,87 +2503,87 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6">
-        <v>4.9000000000000004</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2590,21 +2591,21 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2612,10 +2613,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -2623,10 +2624,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9DA2D9-D61A-4FE9-AAE0-66E3F0AA0C39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B53E9-4F11-4002-9F44-EDA4AD03894A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>section</t>
   </si>
@@ -148,10 +148,6 @@
     <t>Assisted with the preparation of reconciliations of financial and operational data from different sources and provided recommendations to Finance Managers and Head of Schools</t>
   </si>
   <si>
-    <t>Data Analyst Intern</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Developed an automated program (web scraper) that identifies and stores the marketing data in database to produce the desired reports.</t>
   </si>
   <si>
@@ -322,18 +318,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Worked on tight (1-3 month) timeframes to deliver bespoke work on Data Analytics to clients.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Played a key role in mapping the existing business process of the organization with respect to data governance and management and suggesting appropriate business practices to modify them to meet their requirements.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attended meetings with multiple project stakeholders including internal and external clients to gather and document detailed data requirements.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Designed, developed and maintained standardized budget/forecast models, tools and guidelines to improve the accuracy, consistency, timeliness and quality of budgeting and forecasting throughout the Faculties and these are continued to be used across the University faculties.</t>
   </si>
   <si>
@@ -353,6 +337,14 @@
   </si>
   <si>
     <t>Leadership</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highly experienced in data remediation projects. Helped clients understand and remediate payroll compliance issues.</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1226,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1360,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="142.5">
+    <row r="5" spans="1:15" ht="128.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1377,28 +1369,22 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="171">
@@ -1418,22 +1404,22 @@
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>36</v>
@@ -1449,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1458,25 +1444,25 @@
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="185.25">
@@ -1487,104 +1473,104 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.5">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="42.75">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2447,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2470,7 +2456,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -2481,7 +2467,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -2492,7 +2478,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -2503,7 +2489,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2514,10 +2500,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>4.9800000000000004</v>
@@ -2525,10 +2511,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>4.5</v>
@@ -2536,10 +2522,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8">
         <v>4.99</v>
@@ -2547,10 +2533,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>4.9800000000000004</v>
@@ -2558,10 +2544,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10">
         <v>4.9800000000000004</v>
@@ -2569,10 +2555,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C11">
         <v>4.99</v>
@@ -2580,10 +2566,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2591,10 +2577,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>4.95</v>
@@ -2602,10 +2588,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2613,10 +2599,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>53</v>
       </c>
       <c r="C15">
         <v>3.5</v>
@@ -2624,10 +2610,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6B53E9-4F11-4002-9F44-EDA4AD03894A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535FBDFE-8484-4B83-9D4D-059D27C8C845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>section</t>
   </si>
@@ -271,80 +271,89 @@
     <t>2017 Aug</t>
   </si>
   <si>
+    <t xml:space="preserve">Datacamp (Click [here](https://www.ding-rui.org/en/2019/07/datacamp-courses/){target="_blank"} to see the list)  &lt;br&gt; Courses include: </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use SQL in R</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webscraping with R</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleansing, Transformation and Visualization of data</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporting and Visualization using Rmarkdown, ggplot2 and Shiny</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFA Level 1 Passed</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilised data analysis and visualisation techniques to provide clients with powerful business insight regarding their data. This would in turn help them make informed business decisions. Tools used include Alteryx, SQL, Power BI, Tableau and Qlik Sense.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 Aug</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Provisional member of Chartered Accountants ANZ</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties. Tools used include: Google App Script, Python and VBA</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designed, developed and maintained standardized budget/forecast models, tools and guidelines to improve the accuracy, consistency, timeliness and quality of budgeting and forecasting throughout the Faculties and these are continued to be used across the University faculties.</t>
+  </si>
+  <si>
+    <t>Performed variance analysis, trend analysis and sensitivity analysis on daily requests. Assisting Senior Financial Analyst in providing insightful analysis, to track and report financial and non-financial KPIs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javascript </t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Communication</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team Work</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leadership</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Analyst</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Highly experienced in data remediation projects. Helped clients understand and remediate payroll compliance issues.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>CFA Institute (Click [here](https://basno.com/joqdkd6z){target="_blank"} to see badge)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datacamp (Click [here](https://www.ding-rui.org/en/2019/07/datacamp-courses/){target="_blank"} to see the list)  &lt;br&gt; Courses include: </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Use SQL in R</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Webscraping with R</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cleansing, Transformation and Visualization of data</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporting and Visualization using Rmarkdown, ggplot2 and Shiny</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>CFA Level 1 Passed</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utilised data analysis and visualisation techniques to provide clients with powerful business insight regarding their data. This would in turn help them make informed business decisions. Tools used include Alteryx, SQL, Power BI, Tableau and Qlik Sense.</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018 Aug</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Provisional member of Chartered Accountants ANZ</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties. Tools used include: Google App Script, Python and VBA</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Designed, developed and maintained standardized budget/forecast models, tools and guidelines to improve the accuracy, consistency, timeliness and quality of budgeting and forecasting throughout the Faculties and these are continued to be used across the University faculties.</t>
-  </si>
-  <si>
-    <t>Performed variance analysis, trend analysis and sensitivity analysis on daily requests. Assisting Senior Financial Analyst in providing insightful analysis, to track and report financial and non-financial KPIs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript </t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Communication</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team Work</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leadership</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Analyst</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>Highly experienced in data remediation projects. Helped clients understand and remediate payroll compliance issues.</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alteryx core certificate</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alteryx  (Click [here](https://s3.us-east-2.amazonaws.com/ayx.certificates/20210419_AlterxDesignerCoreMTM3OTE1OmRlc2lnbmVLWNvcmU6Nkx.pdf){target="_blank"})</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1218,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1237,25 +1246,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1277,49 +1286,49 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" ht="28.5">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="b">
+      <c r="B2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="5">
         <v>2017</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="5">
         <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="28.5">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="b">
+      <c r="B3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>2016</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>2017</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1327,25 +1336,25 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.5">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="b">
+      <c r="B4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="5">
         <v>2013</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>2016</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1353,67 +1362,67 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="128.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="b">
+      <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="171">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="171">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>64</v>
@@ -1428,25 +1437,25 @@
       <c r="O6"/>
     </row>
     <row r="7" spans="1:15" ht="99.75">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1466,25 +1475,25 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="185.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="b">
+      <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="5" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1501,76 +1510,97 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="28.5">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="b">
+      <c r="B9" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
+    <row r="10" spans="1:15" ht="42.75">
+      <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="b">
+      <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="57">
+      <c r="A11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="42.75">
-      <c r="A11" t="s">
+      <c r="H11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="57">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="b">
+      <c r="B12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2514,7 +2544,7 @@
         <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>4.5</v>
@@ -2525,7 +2555,7 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>4.99</v>
@@ -2558,7 +2588,7 @@
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11">
         <v>4.99</v>
@@ -2613,7 +2643,7 @@
         <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>2.5</v>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work project\vitae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EE1039-3B95-4868-BFB2-75917CC491E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB4B433-FEEE-4FDC-A6C2-DB9FB24E6B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="positions" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">skills!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">skills!$A$1:$C$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="81">
   <si>
     <t>section</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>CSS/HTML</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -204,16 +201,7 @@
     <t>Communication</t>
   </si>
   <si>
-    <t>Excel</t>
-  </si>
-  <si>
     <t>Alteryx</t>
-  </si>
-  <si>
-    <t>Team Work</t>
-  </si>
-  <si>
-    <t>visuals</t>
   </si>
   <si>
     <t>Power BI</t>
@@ -225,81 +213,94 @@
     <t>Tableau</t>
   </si>
   <si>
-    <t>R shiny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript </t>
-  </si>
-  <si>
     <t>Travelzoo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Achieved Overall WAM of 80/100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Utilised data analysis and visualisation techniques to provide clients with powerful business insights regarding their data. This would in turn help them make informed strategic decisions. Tools used include Alteryx, SQL, Power BI, Python, R, Tableau and Qlik Sense.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assisted clients in the identification and management of compliance risks by assessing the current state, prioritising improvements and conducting projects to reduce risk, remediate issues and improve future regulatory compliance</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Identified and remediated control and performance gaps compared to leading practice, helped clients gain business insights, reduce risk, and increase value</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Worked closely with both internal and external stakeholders to initiate decisions and execute implementation that drive projects</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Provided coaching and mentoring to junior team members which help them grow </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Built and maintained quarterly/monthly dashboard for different countries and provided ad-hoc support which provided strategic measurements for management.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Stakeholder management</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2020 Jan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2021 June</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2019 Aug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2019 Dec</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2021 Jul</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2017 Aug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assisted clients in the identification and management of business risks by assessing the current state, prioritising improvements and conducting projects to reduce risk, remediate issues and improve business process and systems</t>
+  </si>
+  <si>
+    <t>Expected become CA qualified by end of 2022</t>
+  </si>
+  <si>
+    <t>Data analytics</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Team work</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -374,36 +375,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,7 +775,7 @@
         <v>2016</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -798,25 +802,25 @@
         <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>71</v>
+      <c r="I5" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -838,10 +842,10 @@
         <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -874,10 +878,10 @@
         <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>34</v>
@@ -899,7 +903,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>16</v>
@@ -911,7 +915,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -937,7 +941,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>39</v>
@@ -965,12 +969,14 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
@@ -13317,7 +13323,7 @@
       <c r="O1000" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13325,10 +13331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13368,7 +13374,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="7">
-        <v>2.5</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13390,15 +13396,15 @@
         <v>55</v>
       </c>
       <c r="C5" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
+      <c r="B6" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="7">
         <v>4.9800000000000004</v>
@@ -13406,10 +13412,10 @@
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="C7" s="7">
         <v>4.99</v>
@@ -13417,103 +13423,73 @@
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4.9989999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C13" s="7">
         <v>4.99</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4.9800000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="7">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="7">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.5</v>
-      </c>
-    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14495,12 +14471,9 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:C13" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -15520,7 +15493,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>section</t>
   </si>
@@ -106,13 +106,13 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Utilised data analysis and visualisation techniques to provide clients with powerful business insights regarding their data. This would in turn help them make informed strategic decisions. Tools used include Alteryx, SQL, Power BI, Python, R, Tableau and Qlik Sense.</t>
+    <t>Utilised data analysis and visualisation/dashboard techniques to provide clients with powerful business insights regarding their data. This would in turn help them make informed strategic decisions. Tools used include Alteryx, SQL, Power BI, Python, R, Tableau and Qlik Sense.</t>
   </si>
   <si>
-    <t>Assisted clients in the identification and management of business risks by assessing the current state, prioritising improvements and conducting projects to reduce risk, remediate issues and improve business process and systems</t>
+    <t>Assisted clients in the identification and management of business risks by assessing the current state, prioritising improvements and conducting projects to reduce risk, standardise and automate business processes</t>
   </si>
   <si>
-    <t>Identified and remediated control and performance gaps compared to leading practice, helped clients gain business insights, reduce risk, and increase value</t>
+    <t>Identified and remediated control and performance gaps compared to leading practice, helped clients gain business insights and achieve commercial objectives</t>
   </si>
   <si>
     <t>Worked closely with both internal and external stakeholders to initiate decisions and execute implementation that drive projects</t>
@@ -136,7 +136,7 @@
     <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties. Tools used include: Google App Script, Python and VBA</t>
   </si>
   <si>
-    <t>Highly experienced in data remediation projects. Helped clients understand and remediate payroll compliance issues.</t>
+    <t>Highly experienced in data remediation projects. Helped clients understand and remediate compliance issues.</t>
   </si>
   <si>
     <t>Finance Analyst</t>
@@ -184,7 +184,10 @@
     <t>development</t>
   </si>
   <si>
-    <t>Full Member of Chartered Accountants ANZ</t>
+    <t>Full Member (3088357)</t>
+  </si>
+  <si>
+    <t>Chartered Accountants ANZ</t>
   </si>
   <si>
     <t>2023 Mar</t>
@@ -202,7 +205,7 @@
     <t>2018 Aug</t>
   </si>
   <si>
-    <t>Alteryx core certificate</t>
+    <t>Alteryx Core Certificate</t>
   </si>
   <si>
     <t>Alteryx  ([link to certificate](https://s3.us-east-2.amazonaws.com/ayx.certificates/20210419_AlterxDesignerCoreMTM3OTE1OmRlc2lnbmVLWNvcmU6Nkx.pdf){target="_blank"})</t>
@@ -235,17 +238,20 @@
     <t>Cloud (AWS/GCP)</t>
   </si>
   <si>
-    <t>Project Management</t>
+    <t>MS Office Suite</t>
   </si>
   <si>
-    <t>Leadership/Coaching</t>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -266,6 +272,11 @@
       <sz val="7.0"/>
       <color rgb="FF24292E"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -294,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +317,9 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -327,9 +341,11 @@
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -733,14 +749,14 @@
       <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" ht="201.75" customHeight="1">
       <c r="A6" s="1" t="s">
@@ -764,10 +780,10 @@
       <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -800,12 +816,12 @@
       <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
@@ -831,12 +847,12 @@
       <c r="G8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="7"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -863,11 +879,11 @@
       <c r="G9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -880,21 +896,23 @@
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -907,23 +925,23 @@
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>59</v>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -936,23 +954,23 @@
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>62</v>
+      <c r="C12" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -966,15 +984,15 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="10"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -985,12 +1003,12 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1000,11 +1018,11 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1015,11 +1033,11 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1030,10 +1048,10 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1044,11 +1062,11 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1059,11 +1077,11 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1074,11 +1092,11 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1089,11 +1107,11 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1104,11 +1122,11 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="2"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1119,11 +1137,11 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1134,11 +1152,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1149,11 +1167,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1164,11 +1182,11 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1179,11 +1197,11 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="9"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1194,11 +1212,11 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="9"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1209,11 +1227,11 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="9"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1224,11 +1242,11 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="9"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1239,11 +1257,11 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="9"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1254,11 +1272,11 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1269,11 +1287,11 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="9"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1284,11 +1302,11 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1299,11 +1317,11 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="9"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1314,11 +1332,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="9"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1329,11 +1347,11 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="9"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1344,11 +1362,11 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="9"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1359,11 +1377,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="9"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1374,11 +1392,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="9"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1389,11 +1407,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="9"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1404,11 +1422,11 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="9"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1419,11 +1437,11 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="9"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1434,11 +1452,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="9"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1449,11 +1467,11 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="9"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1464,11 +1482,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="9"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1479,11 +1497,11 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="9"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1494,11 +1512,11 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="9"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1509,11 +1527,11 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="9"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1524,11 +1542,11 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="9"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1539,11 +1557,11 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="9"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1554,11 +1572,11 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="9"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1569,11 +1587,11 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="9"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1584,11 +1602,11 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="9"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1599,11 +1617,11 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="9"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1614,11 +1632,11 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="9"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1629,11 +1647,11 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="9"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1644,11 +1662,11 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="9"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1659,11 +1677,11 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="9"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1674,11 +1692,11 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="9"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1689,11 +1707,11 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="9"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1704,11 +1722,11 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="9"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1719,11 +1737,11 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="9"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1734,11 +1752,11 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="9"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1749,11 +1767,11 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="9"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1764,11 +1782,11 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="9"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1779,11 +1797,11 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="9"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -1794,11 +1812,11 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="9"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -1809,11 +1827,11 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="9"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -1824,11 +1842,11 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="9"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -1839,11 +1857,11 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="9"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -1854,11 +1872,11 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="9"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
       <c r="H72" s="2"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -1869,11 +1887,11 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="9"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -1884,11 +1902,11 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="9"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -1899,11 +1917,11 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="9"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -1914,11 +1932,11 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="9"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -1929,11 +1947,11 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="9"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -1944,11 +1962,11 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="9"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="2"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -1959,11 +1977,11 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="9"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -1974,11 +1992,11 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="9"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -1989,11 +2007,11 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="9"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2004,11 +2022,11 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="9"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2019,11 +2037,11 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="9"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2034,11 +2052,11 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="9"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2049,11 +2067,11 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="9"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2064,11 +2082,11 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="9"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2079,11 +2097,11 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="9"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
       <c r="H87" s="2"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2094,11 +2112,11 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="9"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2109,11 +2127,11 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="9"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2124,11 +2142,11 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="9"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2139,11 +2157,11 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="9"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -2154,11 +2172,11 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="9"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2169,11 +2187,11 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="9"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2184,11 +2202,11 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="9"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2199,11 +2217,11 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="9"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2214,11 +2232,11 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="9"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -2229,11 +2247,11 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="9"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -2244,11 +2262,11 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="9"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -2259,11 +2277,11 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="9"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -2274,11 +2292,11 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="9"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -2289,11 +2307,11 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="9"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
       <c r="H101" s="2"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2304,11 +2322,11 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="9"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -2319,11 +2337,11 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="9"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -2334,11 +2352,11 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="9"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -2349,11 +2367,11 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="9"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -2364,11 +2382,11 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="9"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -2379,11 +2397,11 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="9"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -2394,11 +2412,11 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="9"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -2409,11 +2427,11 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="9"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -2424,11 +2442,11 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="9"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="2"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -2439,11 +2457,11 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="9"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -2454,11 +2472,11 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="9"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -2469,11 +2487,11 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="9"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -2484,11 +2502,11 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="9"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="2"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -2499,11 +2517,11 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="9"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -2514,11 +2532,11 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="9"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -2529,11 +2547,11 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="9"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -2544,11 +2562,11 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="9"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -2559,11 +2577,11 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="9"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -2574,11 +2592,11 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="9"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -2589,11 +2607,11 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="9"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -2604,11 +2622,11 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="9"/>
-      <c r="D122" s="11"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="2"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -2619,11 +2637,11 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="9"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -2634,11 +2652,11 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="9"/>
-      <c r="D124" s="11"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -2649,11 +2667,11 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="9"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -2664,11 +2682,11 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="9"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -2679,11 +2697,11 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="9"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -2694,11 +2712,11 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="9"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -2709,11 +2727,11 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="9"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="2"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -2724,11 +2742,11 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="9"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -2739,11 +2757,11 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="9"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -2754,11 +2772,11 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="9"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -2769,11 +2787,11 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="9"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -2784,11 +2802,11 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="9"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -2799,11 +2817,11 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="9"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -2814,11 +2832,11 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="9"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -2829,11 +2847,11 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="9"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -2844,11 +2862,11 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="9"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -2859,11 +2877,11 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="9"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -2874,11 +2892,11 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="9"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -2889,11 +2907,11 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="9"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -2904,11 +2922,11 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="9"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -2919,11 +2937,11 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="9"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -2934,11 +2952,11 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="9"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -2949,11 +2967,11 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="9"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -2964,11 +2982,11 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="9"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -2979,11 +2997,11 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="9"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="2"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -2994,11 +3012,11 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="2"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -3009,11 +3027,11 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="2"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -3024,11 +3042,11 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="2"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -3039,11 +3057,11 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -3054,11 +3072,11 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -3069,11 +3087,11 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="2"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -3084,8 +3102,8 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -3096,8 +3114,8 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -3108,8 +3126,8 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -3120,8 +3138,8 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -3132,8 +3150,8 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -3144,8 +3162,8 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -3156,8 +3174,8 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -3168,8 +3186,8 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -3180,8 +3198,8 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -3192,8 +3210,8 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -3204,8 +3222,8 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -3216,8 +3234,8 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -3228,8 +3246,8 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="F166" s="9"/>
-      <c r="G166" s="9"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -3240,8 +3258,8 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -3252,8 +3270,8 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="F168" s="9"/>
-      <c r="G168" s="9"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -3264,8 +3282,8 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="F169" s="9"/>
-      <c r="G169" s="9"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -3276,8 +3294,8 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -3288,8 +3306,8 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="F171" s="9"/>
-      <c r="G171" s="9"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -3300,8 +3318,8 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -3312,8 +3330,8 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="F173" s="9"/>
-      <c r="G173" s="9"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -3324,8 +3342,8 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="F174" s="9"/>
-      <c r="G174" s="9"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -3336,8 +3354,8 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="F175" s="9"/>
-      <c r="G175" s="9"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -3348,8 +3366,8 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="F176" s="9"/>
-      <c r="G176" s="9"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -3360,8 +3378,8 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="F177" s="9"/>
-      <c r="G177" s="9"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -3372,8 +3390,8 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -3384,8 +3402,8 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="F179" s="9"/>
-      <c r="G179" s="9"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -3396,8 +3414,8 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="F180" s="9"/>
-      <c r="G180" s="9"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -3408,8 +3426,8 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="F181" s="9"/>
-      <c r="G181" s="9"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -3420,8 +3438,8 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="F182" s="9"/>
-      <c r="G182" s="9"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -3432,8 +3450,8 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="F183" s="9"/>
-      <c r="G183" s="9"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -3444,8 +3462,8 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="F184" s="9"/>
-      <c r="G184" s="9"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -3456,8 +3474,8 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="F185" s="9"/>
-      <c r="G185" s="9"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -3468,8 +3486,8 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="F186" s="9"/>
-      <c r="G186" s="9"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -3480,8 +3498,8 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="F187" s="9"/>
-      <c r="G187" s="9"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -3492,8 +3510,8 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="F188" s="9"/>
-      <c r="G188" s="9"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -3504,8 +3522,8 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="F189" s="9"/>
-      <c r="G189" s="9"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -3516,8 +3534,8 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="F190" s="9"/>
-      <c r="G190" s="9"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -3528,8 +3546,8 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="F191" s="9"/>
-      <c r="G191" s="9"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -3540,8 +3558,8 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="F192" s="9"/>
-      <c r="G192" s="9"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -3552,8 +3570,8 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="F193" s="9"/>
-      <c r="G193" s="9"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -3564,8 +3582,8 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="F194" s="9"/>
-      <c r="G194" s="9"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -3576,8 +3594,8 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="F195" s="9"/>
-      <c r="G195" s="9"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -3588,8 +3606,8 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="F196" s="9"/>
-      <c r="G196" s="9"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -3600,8 +3618,8 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="F197" s="9"/>
-      <c r="G197" s="9"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -3612,8 +3630,8 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="F198" s="9"/>
-      <c r="G198" s="9"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -3624,8 +3642,8 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="F199" s="9"/>
-      <c r="G199" s="9"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -3636,8 +3654,8 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="F200" s="9"/>
-      <c r="G200" s="9"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -3648,8 +3666,8 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="F201" s="9"/>
-      <c r="G201" s="9"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -3660,8 +3678,8 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="F202" s="9"/>
-      <c r="G202" s="9"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -3672,8 +3690,8 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="F203" s="9"/>
-      <c r="G203" s="9"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -3684,8 +3702,8 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="F204" s="9"/>
-      <c r="G204" s="9"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -3696,8 +3714,8 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="F205" s="9"/>
-      <c r="G205" s="9"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -3708,8 +3726,8 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="F206" s="9"/>
-      <c r="G206" s="9"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -3720,8 +3738,8 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="F207" s="9"/>
-      <c r="G207" s="9"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -3732,8 +3750,8 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="F208" s="9"/>
-      <c r="G208" s="9"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -3744,8 +3762,8 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="F209" s="9"/>
-      <c r="G209" s="9"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -3756,8 +3774,8 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="F210" s="9"/>
-      <c r="G210" s="9"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -3768,8 +3786,8 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="F211" s="9"/>
-      <c r="G211" s="9"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -3780,8 +3798,8 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="F212" s="9"/>
-      <c r="G212" s="9"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -3792,8 +3810,8 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="F213" s="9"/>
-      <c r="G213" s="9"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -3804,8 +3822,8 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="F214" s="9"/>
-      <c r="G214" s="9"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -3816,8 +3834,8 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -3828,8 +3846,8 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="F216" s="9"/>
-      <c r="G216" s="9"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -3840,8 +3858,8 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="F217" s="9"/>
-      <c r="G217" s="9"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -3852,8 +3870,8 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="F218" s="9"/>
-      <c r="G218" s="9"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -3864,8 +3882,8 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="F219" s="9"/>
-      <c r="G219" s="9"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -3876,8 +3894,8 @@
       <c r="O219" s="1"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="F220" s="9"/>
-      <c r="G220" s="9"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -4692,1079 +4710,3065 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>68</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="12">
+        <v>71</v>
+      </c>
+      <c r="C2" s="13">
         <v>4.99</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="12">
-        <f t="shared" ref="C3:C6" si="1">C2-0.001</f>
+        <v>72</v>
+      </c>
+      <c r="C3" s="13">
         <v>4.989</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="12">
-        <f t="shared" si="1"/>
-        <v>4.988</v>
+        <v>73</v>
+      </c>
+      <c r="C4" s="13">
+        <v>4.9879999999999995</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="1"/>
-        <v>4.987</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.989</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="12">
-        <f t="shared" si="1"/>
-        <v>4.986</v>
+        <v>70</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13">
+        <v>4.9879999999999995</v>
       </c>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="C63" s="15"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="C64" s="15"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="C73" s="15"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="C81" s="15"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="C82" s="15"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="C83" s="15"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="C84" s="15"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="C86" s="15"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="C87" s="15"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="C93" s="15"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="C94" s="15"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="C96" s="15"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="C97" s="15"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="C99" s="15"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="C100" s="15"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="C102" s="15"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="C103" s="15"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="C108" s="15"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="C110" s="15"/>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="C111" s="15"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="C112" s="15"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="C117" s="15"/>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="C118" s="15"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="C122" s="15"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="C123" s="15"/>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="C124" s="15"/>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="C126" s="15"/>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="C127" s="15"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="C129" s="15"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="C131" s="15"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="C132" s="15"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="C133" s="15"/>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="C134" s="15"/>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="C136" s="15"/>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="C139" s="15"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="C140" s="15"/>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="C141" s="15"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="C142" s="15"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="C143" s="15"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="C144" s="15"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="C145" s="15"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="C147" s="15"/>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="C151" s="15"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="C153" s="15"/>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="C158" s="15"/>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="C159" s="15"/>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="C160" s="15"/>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="C161" s="15"/>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="C162" s="15"/>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="C163" s="15"/>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="C164" s="15"/>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="C166" s="15"/>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="C167" s="15"/>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="C168" s="15"/>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="C170" s="15"/>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="C173" s="15"/>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="C174" s="15"/>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="C176" s="15"/>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="C177" s="15"/>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="C178" s="15"/>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="C179" s="15"/>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="C180" s="15"/>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="C181" s="15"/>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="C182" s="15"/>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="C183" s="15"/>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="C184" s="15"/>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="C185" s="15"/>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="C186" s="15"/>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="C187" s="15"/>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="C188" s="15"/>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="C190" s="15"/>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="C191" s="15"/>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="C192" s="15"/>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="C193" s="15"/>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="C194" s="15"/>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="C195" s="15"/>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="C196" s="15"/>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="C197" s="15"/>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="C198" s="15"/>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="C199" s="15"/>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="C200" s="15"/>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="C201" s="15"/>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="C202" s="15"/>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="C203" s="15"/>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="C204" s="15"/>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="C205" s="15"/>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="C206" s="15"/>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="C207" s="15"/>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="C208" s="15"/>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="C209" s="15"/>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="C210" s="15"/>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="C211" s="15"/>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="C212" s="15"/>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="C213" s="15"/>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="C214" s="15"/>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="C215" s="15"/>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="C216" s="15"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="15"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="15"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="C219" s="15"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="C220" s="15"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="C221" s="15"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="C222" s="15"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="C223" s="15"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="C224" s="15"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="C225" s="15"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="C226" s="15"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="C227" s="15"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="C228" s="15"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="C229" s="15"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="C230" s="15"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="C231" s="15"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="C232" s="15"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="C233" s="15"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="C234" s="15"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="C235" s="15"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="C236" s="15"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="C237" s="15"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="C238" s="15"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="C239" s="15"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="C240" s="15"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="C241" s="15"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="C242" s="15"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="C243" s="15"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="C244" s="15"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="C245" s="15"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="C246" s="15"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="C247" s="15"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="C248" s="15"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="C249" s="15"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="C250" s="15"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="C251" s="15"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="C252" s="15"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="C253" s="15"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="C254" s="15"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="C255" s="15"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="C256" s="15"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="C257" s="15"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="C258" s="15"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="C259" s="15"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="C260" s="15"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="C261" s="15"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="C262" s="15"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="C263" s="15"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="C264" s="15"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="C265" s="15"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="C266" s="15"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="C267" s="15"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="C268" s="15"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="C269" s="15"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="C270" s="15"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="C271" s="15"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="C272" s="15"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="C273" s="15"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="C274" s="15"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="C275" s="15"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="C276" s="15"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="C277" s="15"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="C278" s="15"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="C279" s="15"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="C280" s="15"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="C281" s="15"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="C282" s="15"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="C283" s="15"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="C284" s="15"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="C285" s="15"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="C286" s="15"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="C287" s="15"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="C288" s="15"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="C289" s="15"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="C290" s="15"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="C291" s="15"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="C292" s="15"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="C293" s="15"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="C294" s="15"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="C295" s="15"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="C296" s="15"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="C297" s="15"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="C298" s="15"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="C299" s="15"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="C300" s="15"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="C301" s="15"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="C302" s="15"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="C303" s="15"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="C304" s="15"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="C305" s="15"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="C306" s="15"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="C307" s="15"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="C308" s="15"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="C309" s="15"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="C310" s="15"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="C311" s="15"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="C312" s="15"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="C313" s="15"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="C314" s="15"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="C315" s="15"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="C316" s="15"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="C317" s="15"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="C318" s="15"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="C319" s="15"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="C320" s="15"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="C321" s="15"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="C322" s="15"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="C323" s="15"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="C324" s="15"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="C325" s="15"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="C326" s="15"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="C327" s="15"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="C328" s="15"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="C329" s="15"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="C330" s="15"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="C331" s="15"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="C332" s="15"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="C333" s="15"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="C334" s="15"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="C335" s="15"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="C336" s="15"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="C337" s="15"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="C338" s="15"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="C339" s="15"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="C340" s="15"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="C341" s="15"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="C342" s="15"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="C343" s="15"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="C344" s="15"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="C345" s="15"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="C346" s="15"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="C347" s="15"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="C348" s="15"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="C349" s="15"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="C350" s="15"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="C351" s="15"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="C352" s="15"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="C353" s="15"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="C354" s="15"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="C355" s="15"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="C356" s="15"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="C357" s="15"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="C358" s="15"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="C359" s="15"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="C360" s="15"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="C361" s="15"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="C362" s="15"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="C363" s="15"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="C364" s="15"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="C365" s="15"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="C366" s="15"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="C367" s="15"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="C368" s="15"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="C369" s="15"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="C370" s="15"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="C371" s="15"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="C372" s="15"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="C373" s="15"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="C374" s="15"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="C375" s="15"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="C376" s="15"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="C377" s="15"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="C378" s="15"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="C379" s="15"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="C380" s="15"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="C381" s="15"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="C382" s="15"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="C383" s="15"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="C384" s="15"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="C385" s="15"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="C386" s="15"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="C387" s="15"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="C388" s="15"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="C389" s="15"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="C390" s="15"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="C391" s="15"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="C392" s="15"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="C393" s="15"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="C394" s="15"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="C395" s="15"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="C396" s="15"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="C397" s="15"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="C398" s="15"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="C399" s="15"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="C400" s="15"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="C401" s="15"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="C402" s="15"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="C403" s="15"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="C404" s="15"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="C405" s="15"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="C406" s="15"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="C407" s="15"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="C408" s="15"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="C409" s="15"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="C410" s="15"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="C411" s="15"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="C412" s="15"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="C413" s="15"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="C414" s="15"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="C415" s="15"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="C416" s="15"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="C417" s="15"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="C418" s="15"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="C419" s="15"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="C420" s="15"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="C421" s="15"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="C422" s="15"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="C423" s="15"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="C424" s="15"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="C425" s="15"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="C426" s="15"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="C427" s="15"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="C428" s="15"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="C429" s="15"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="C430" s="15"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="C431" s="15"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="C432" s="15"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="C433" s="15"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="C434" s="15"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="C435" s="15"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="C436" s="15"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="C437" s="15"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="C438" s="15"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="C439" s="15"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="C440" s="15"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="C441" s="15"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="C442" s="15"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="C443" s="15"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="C444" s="15"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="C445" s="15"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="C446" s="15"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="C447" s="15"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="C448" s="15"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="C449" s="15"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="C450" s="15"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="C451" s="15"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="C452" s="15"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="C453" s="15"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="C454" s="15"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="C455" s="15"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="C456" s="15"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="C457" s="15"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="C458" s="15"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="C459" s="15"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="C460" s="15"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="C461" s="15"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="C462" s="15"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="C463" s="15"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="C464" s="15"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="C465" s="15"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="C466" s="15"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="C467" s="15"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="C468" s="15"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="C469" s="15"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="C470" s="15"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="C471" s="15"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="C472" s="15"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="C473" s="15"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="C474" s="15"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="C475" s="15"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="C476" s="15"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="C477" s="15"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="C478" s="15"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="C479" s="15"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="C480" s="15"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="C481" s="15"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="C482" s="15"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="C483" s="15"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="C484" s="15"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="C485" s="15"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="C486" s="15"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="C487" s="15"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="C488" s="15"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="C489" s="15"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="C490" s="15"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="C491" s="15"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="C492" s="15"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="C493" s="15"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="C494" s="15"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="C495" s="15"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="C496" s="15"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="C497" s="15"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="C498" s="15"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="C499" s="15"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="C500" s="15"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="C501" s="15"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="C502" s="15"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="C503" s="15"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="C504" s="15"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="C505" s="15"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="C506" s="15"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="C507" s="15"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="C508" s="15"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="C509" s="15"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="C510" s="15"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="C511" s="15"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="C512" s="15"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="C513" s="15"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="C514" s="15"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="C515" s="15"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="C516" s="15"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="C517" s="15"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="C518" s="15"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="C519" s="15"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="C520" s="15"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="C521" s="15"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="C522" s="15"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="C523" s="15"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="C524" s="15"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="C525" s="15"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="C526" s="15"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="C527" s="15"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="C528" s="15"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="C529" s="15"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="C530" s="15"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="C531" s="15"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="C532" s="15"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="C533" s="15"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="C534" s="15"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="C535" s="15"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="C536" s="15"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="C537" s="15"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="C538" s="15"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="C539" s="15"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="C540" s="15"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="C541" s="15"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="C542" s="15"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="C543" s="15"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="C544" s="15"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="C545" s="15"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="C546" s="15"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="C547" s="15"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="C548" s="15"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="C549" s="15"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="C550" s="15"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="C551" s="15"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="C552" s="15"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="C553" s="15"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="C554" s="15"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="C555" s="15"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="C556" s="15"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="C557" s="15"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="C558" s="15"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="C559" s="15"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="C560" s="15"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="C561" s="15"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="C562" s="15"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="C563" s="15"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="C564" s="15"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="C565" s="15"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="C566" s="15"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="C567" s="15"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="C568" s="15"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="C569" s="15"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="C570" s="15"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="C571" s="15"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="C572" s="15"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="C573" s="15"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="C574" s="15"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="C575" s="15"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="C576" s="15"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="C577" s="15"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="C578" s="15"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="C579" s="15"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="C580" s="15"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="C581" s="15"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="C582" s="15"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="C583" s="15"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="C584" s="15"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="C585" s="15"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="C586" s="15"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="C587" s="15"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="C588" s="15"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="C589" s="15"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="C590" s="15"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="C591" s="15"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="C592" s="15"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="C593" s="15"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="C594" s="15"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="C595" s="15"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="C596" s="15"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="C597" s="15"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="C598" s="15"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="C599" s="15"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="C600" s="15"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="C601" s="15"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="C602" s="15"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="C603" s="15"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="C604" s="15"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="C605" s="15"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="C606" s="15"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="C607" s="15"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="C608" s="15"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="C609" s="15"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="C610" s="15"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="C611" s="15"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="C612" s="15"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="C613" s="15"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="C614" s="15"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="C615" s="15"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="C616" s="15"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="C617" s="15"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="C618" s="15"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="C619" s="15"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="C620" s="15"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="C621" s="15"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="C622" s="15"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="C623" s="15"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="C624" s="15"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="C625" s="15"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="C626" s="15"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="C627" s="15"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="C628" s="15"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="C629" s="15"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="C630" s="15"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="C631" s="15"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="C632" s="15"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="C633" s="15"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="C634" s="15"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="C635" s="15"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="C636" s="15"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="C637" s="15"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="C638" s="15"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="C639" s="15"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="C640" s="15"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="C641" s="15"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="C642" s="15"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="C643" s="15"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="C644" s="15"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="C645" s="15"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="C646" s="15"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="C647" s="15"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="C648" s="15"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="C649" s="15"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="C650" s="15"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="C651" s="15"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="C652" s="15"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="C653" s="15"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="C654" s="15"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="C655" s="15"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="C656" s="15"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="C657" s="15"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="C658" s="15"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="C659" s="15"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="C660" s="15"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="C661" s="15"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="C662" s="15"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="C663" s="15"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="C664" s="15"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="C665" s="15"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="C666" s="15"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="C667" s="15"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="C668" s="15"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="C669" s="15"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="C670" s="15"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="C671" s="15"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="C672" s="15"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="C673" s="15"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="C674" s="15"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="C675" s="15"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="C676" s="15"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="C677" s="15"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="C678" s="15"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="C679" s="15"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="C680" s="15"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="C681" s="15"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="C682" s="15"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="C683" s="15"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="C684" s="15"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="C685" s="15"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="C686" s="15"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="C687" s="15"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="C688" s="15"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="C689" s="15"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="C690" s="15"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="C691" s="15"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="C692" s="15"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="C693" s="15"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="C694" s="15"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="C695" s="15"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="C696" s="15"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="C697" s="15"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="C698" s="15"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="C699" s="15"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="C700" s="15"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="C701" s="15"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="C702" s="15"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="C703" s="15"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="C704" s="15"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="C705" s="15"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="C706" s="15"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="C707" s="15"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="C708" s="15"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="C709" s="15"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="C710" s="15"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="C711" s="15"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="C712" s="15"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="C713" s="15"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="C714" s="15"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="C715" s="15"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="C716" s="15"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="C717" s="15"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="C718" s="15"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="C719" s="15"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="C720" s="15"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="C721" s="15"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="C722" s="15"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="C723" s="15"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="C724" s="15"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="C725" s="15"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="C726" s="15"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="C727" s="15"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="C728" s="15"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="C729" s="15"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="C730" s="15"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="C731" s="15"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="C732" s="15"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="C733" s="15"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="C734" s="15"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="C735" s="15"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="C736" s="15"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="C737" s="15"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="C738" s="15"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="C739" s="15"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="C740" s="15"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="C741" s="15"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="C742" s="15"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="C743" s="15"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="C744" s="15"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="C745" s="15"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="C746" s="15"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="C747" s="15"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="C748" s="15"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="C749" s="15"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="C750" s="15"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="C751" s="15"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="C752" s="15"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="C753" s="15"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="C754" s="15"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="C755" s="15"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="C756" s="15"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="C757" s="15"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="C758" s="15"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="C759" s="15"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="C760" s="15"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="C761" s="15"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="C762" s="15"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="C763" s="15"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="C764" s="15"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="C765" s="15"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="C766" s="15"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="C767" s="15"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="C768" s="15"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="C769" s="15"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="C770" s="15"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="C771" s="15"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="C772" s="15"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="C773" s="15"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="C774" s="15"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="C775" s="15"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="C776" s="15"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="C777" s="15"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="C778" s="15"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="C779" s="15"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="C780" s="15"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="C781" s="15"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="C782" s="15"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="C783" s="15"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="C784" s="15"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="C785" s="15"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="C786" s="15"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="C787" s="15"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="C788" s="15"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="C789" s="15"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="C790" s="15"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="C791" s="15"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="C792" s="15"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="C793" s="15"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="C794" s="15"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="C795" s="15"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="C796" s="15"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="C797" s="15"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="C798" s="15"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="C799" s="15"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="C800" s="15"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="C801" s="15"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="C802" s="15"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="C803" s="15"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="C804" s="15"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="C805" s="15"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="C806" s="15"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="C807" s="15"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="C808" s="15"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="C809" s="15"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="C810" s="15"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="C811" s="15"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="C812" s="15"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="C813" s="15"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="C814" s="15"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="C815" s="15"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="C816" s="15"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="C817" s="15"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="C818" s="15"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="C819" s="15"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="C820" s="15"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="C821" s="15"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="C822" s="15"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="C823" s="15"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="C824" s="15"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="C825" s="15"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="C826" s="15"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="C827" s="15"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="C828" s="15"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="C829" s="15"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="C830" s="15"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="C831" s="15"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="C832" s="15"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="C833" s="15"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="C834" s="15"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="C835" s="15"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="C836" s="15"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="C837" s="15"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="C838" s="15"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="C839" s="15"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="C840" s="15"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="C841" s="15"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="C842" s="15"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="C843" s="15"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="C844" s="15"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="C845" s="15"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="C846" s="15"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="C847" s="15"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="C848" s="15"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="C849" s="15"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="C850" s="15"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="C851" s="15"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="C852" s="15"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="C853" s="15"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="C854" s="15"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="C855" s="15"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="C856" s="15"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="C857" s="15"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="C858" s="15"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="C859" s="15"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="C860" s="15"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="C861" s="15"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="C862" s="15"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="C863" s="15"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="C864" s="15"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="C865" s="15"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="C866" s="15"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="C867" s="15"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="C868" s="15"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="C869" s="15"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="C870" s="15"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="C871" s="15"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="C872" s="15"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="C873" s="15"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="C874" s="15"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="C875" s="15"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="C876" s="15"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="C877" s="15"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="C878" s="15"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="C879" s="15"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="C880" s="15"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="C881" s="15"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="C882" s="15"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="C883" s="15"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="C884" s="15"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="C885" s="15"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="C886" s="15"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="C887" s="15"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="C888" s="15"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="C889" s="15"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="C890" s="15"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="C891" s="15"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="C892" s="15"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="C893" s="15"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="C894" s="15"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="C895" s="15"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="C896" s="15"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="C897" s="15"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="C898" s="15"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="C899" s="15"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="C900" s="15"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="C901" s="15"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="C902" s="15"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="C903" s="15"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="C904" s="15"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="C905" s="15"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="C906" s="15"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="C907" s="15"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="C908" s="15"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="C909" s="15"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="C910" s="15"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="C911" s="15"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="C912" s="15"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="C913" s="15"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="C914" s="15"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="C915" s="15"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="C916" s="15"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="C917" s="15"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="C918" s="15"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="C919" s="15"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="C920" s="15"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="C921" s="15"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="C922" s="15"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="C923" s="15"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="C924" s="15"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="C925" s="15"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="C926" s="15"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="C927" s="15"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="C928" s="15"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="C929" s="15"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="C930" s="15"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="C931" s="15"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="C932" s="15"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="C933" s="15"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="C934" s="15"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="C935" s="15"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="C936" s="15"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="C937" s="15"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="C938" s="15"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="C939" s="15"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="C940" s="15"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="C941" s="15"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="C942" s="15"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="C943" s="15"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="C944" s="15"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="C945" s="15"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="C946" s="15"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="C947" s="15"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="C948" s="15"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="C949" s="15"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="C950" s="15"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="C951" s="15"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="C952" s="15"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="C953" s="15"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="C954" s="15"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="C955" s="15"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="C956" s="15"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="C957" s="15"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="C958" s="15"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="C959" s="15"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="C960" s="15"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="C961" s="15"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="C962" s="15"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="C963" s="15"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="C964" s="15"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="C965" s="15"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="C966" s="15"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="C967" s="15"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="C968" s="15"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="C969" s="15"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="C970" s="15"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="C971" s="15"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="C972" s="15"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="C973" s="15"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="C974" s="15"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="C975" s="15"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="C976" s="15"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="C977" s="15"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="C978" s="15"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="C979" s="15"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="C980" s="15"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="C981" s="15"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="C982" s="15"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="C983" s="15"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="C984" s="15"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="C985" s="15"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="C986" s="15"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="C987" s="15"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="C988" s="15"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="C989" s="15"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="C990" s="15"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="C991" s="15"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="C992" s="15"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="C993" s="15"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="C994" s="15"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="C995" s="15"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="C996" s="15"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="C997" s="15"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="C998" s="15"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="C999" s="15"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="C1000" s="15"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$C$6"/>
+  <autoFilter ref="$A$1:$C$6">
+    <sortState ref="A1:C6">
+      <sortCondition descending="1" ref="C1:C6"/>
+    </sortState>
+  </autoFilter>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>section</t>
   </si>
@@ -58,15 +58,27 @@
     <t>education</t>
   </si>
   <si>
+    <t>Graduate Diploma of Chartered Accounting</t>
+  </si>
+  <si>
+    <t>Chartered Accountants Australia and New Zealand</t>
+  </si>
+  <si>
+    <t>Sydney, Australia</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>Master of Professional Accounting</t>
   </si>
   <si>
     <t>University of New South Wales</t>
   </si>
   <si>
-    <t>Sydney, Australia</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
@@ -229,19 +241,19 @@
     <t>Skills</t>
   </si>
   <si>
+    <t>Cloud (AWS/GCP)</t>
+  </si>
+  <si>
     <t>Python/R/SQL/Alteryx</t>
   </si>
   <si>
     <t>Power BI/Qlik/Tableau</t>
   </si>
   <si>
-    <t>Cloud (AWS/GCP)</t>
-  </si>
-  <si>
-    <t>MS Office Suite</t>
-  </si>
-  <si>
-    <t>Communication</t>
+    <t>Business/Communication</t>
+  </si>
+  <si>
+    <t>Leadership/Management</t>
   </si>
 </sst>
 </file>
@@ -276,7 +288,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -315,11 +326,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -329,9 +343,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -632,19 +643,19 @@
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="1"/>
@@ -667,16 +678,16 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
+      <c r="F3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -695,19 +706,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -718,148 +729,147 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" ht="183.75" customHeight="1">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" ht="183.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" ht="201.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" ht="60.0" customHeight="1">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" ht="201.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
     </row>
     <row r="8" ht="60.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
     <row r="9" ht="60.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -877,50 +887,53 @@
         <v>52</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="1"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="8"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" ht="60.0" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="G10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" ht="60.0" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -936,12 +949,12 @@
         <v>62</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -949,66 +962,80 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" ht="78.75" customHeight="1">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+    <row r="14" ht="78.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1023,7 +1050,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1048,6 +1075,7 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
+      <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1062,7 +1090,6 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1083,8 +1110,8 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1100,8 +1127,8 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -1128,10 +1155,10 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -1198,7 +1225,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -3013,7 +3040,7 @@
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
+      <c r="D148" s="12"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
@@ -3102,9 +3129,12 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
-      <c r="H154" s="1"/>
+      <c r="H154" s="2"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -3904,6 +3934,1545 @@
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
+    </row>
+    <row r="221" ht="14.25" customHeight="1">
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="25.38"/>
+    <col customWidth="1" min="3" max="3" width="12.38"/>
+    <col customWidth="1" min="4" max="6" width="8.63"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C6" si="1">C2-0.0001</f>
+        <v>4.9899</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9898</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9897</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9896</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
+      <c r="C27" s="15"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="C37" s="15"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="C39" s="15"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="C42" s="15"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="C45" s="15"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
+      <c r="C46" s="15"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
+      <c r="C47" s="15"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
+      <c r="C48" s="15"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
+      <c r="C49" s="15"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="C50" s="15"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
+      <c r="C51" s="15"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
+      <c r="C52" s="15"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
+      <c r="C54" s="15"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
+      <c r="C55" s="15"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
+      <c r="C56" s="15"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
+      <c r="C57" s="15"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="C58" s="15"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="C59" s="15"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="C60" s="15"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="C62" s="15"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="C63" s="15"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="C64" s="15"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="C65" s="15"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="C66" s="15"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="C67" s="15"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="C68" s="15"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="C69" s="15"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="C70" s="15"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="C71" s="15"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="C72" s="15"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="C73" s="15"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="C75" s="15"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="C77" s="15"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="C79" s="15"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="C81" s="15"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="C82" s="15"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="C83" s="15"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="C84" s="15"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="C85" s="15"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="C86" s="15"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="C87" s="15"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="C89" s="15"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="C92" s="15"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="C93" s="15"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="C94" s="15"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="C96" s="15"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="C97" s="15"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="C98" s="15"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="C99" s="15"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="C100" s="15"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="C102" s="15"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="C103" s="15"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="C105" s="15"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="C106" s="15"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="C107" s="15"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="C108" s="15"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="C109" s="15"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="C110" s="15"/>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="C111" s="15"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="C112" s="15"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="C113" s="15"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="C114" s="15"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="C115" s="15"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="C116" s="15"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="C117" s="15"/>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="C118" s="15"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="C119" s="15"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="C121" s="15"/>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="C122" s="15"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="C123" s="15"/>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="C124" s="15"/>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="C125" s="15"/>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="C126" s="15"/>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="C127" s="15"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="C128" s="15"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="C129" s="15"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="C130" s="15"/>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="C131" s="15"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="C132" s="15"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="C133" s="15"/>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="C134" s="15"/>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="C135" s="15"/>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="C136" s="15"/>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="C137" s="15"/>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="C139" s="15"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="C140" s="15"/>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="C141" s="15"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="C142" s="15"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="C143" s="15"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="C144" s="15"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="C145" s="15"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="C146" s="15"/>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="C147" s="15"/>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="C148" s="15"/>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="C149" s="15"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="C150" s="15"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="C151" s="15"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="C152" s="15"/>
+    </row>
+    <row r="153" ht="14.25" customHeight="1">
+      <c r="C153" s="15"/>
+    </row>
+    <row r="154" ht="14.25" customHeight="1">
+      <c r="C154" s="15"/>
+    </row>
+    <row r="155" ht="14.25" customHeight="1">
+      <c r="C155" s="15"/>
+    </row>
+    <row r="156" ht="14.25" customHeight="1">
+      <c r="C156" s="15"/>
+    </row>
+    <row r="157" ht="14.25" customHeight="1">
+      <c r="C157" s="15"/>
+    </row>
+    <row r="158" ht="14.25" customHeight="1">
+      <c r="C158" s="15"/>
+    </row>
+    <row r="159" ht="14.25" customHeight="1">
+      <c r="C159" s="15"/>
+    </row>
+    <row r="160" ht="14.25" customHeight="1">
+      <c r="C160" s="15"/>
+    </row>
+    <row r="161" ht="14.25" customHeight="1">
+      <c r="C161" s="15"/>
+    </row>
+    <row r="162" ht="14.25" customHeight="1">
+      <c r="C162" s="15"/>
+    </row>
+    <row r="163" ht="14.25" customHeight="1">
+      <c r="C163" s="15"/>
+    </row>
+    <row r="164" ht="14.25" customHeight="1">
+      <c r="C164" s="15"/>
+    </row>
+    <row r="165" ht="14.25" customHeight="1">
+      <c r="C165" s="15"/>
+    </row>
+    <row r="166" ht="14.25" customHeight="1">
+      <c r="C166" s="15"/>
+    </row>
+    <row r="167" ht="14.25" customHeight="1">
+      <c r="C167" s="15"/>
+    </row>
+    <row r="168" ht="14.25" customHeight="1">
+      <c r="C168" s="15"/>
+    </row>
+    <row r="169" ht="14.25" customHeight="1">
+      <c r="C169" s="15"/>
+    </row>
+    <row r="170" ht="14.25" customHeight="1">
+      <c r="C170" s="15"/>
+    </row>
+    <row r="171" ht="14.25" customHeight="1">
+      <c r="C171" s="15"/>
+    </row>
+    <row r="172" ht="14.25" customHeight="1">
+      <c r="C172" s="15"/>
+    </row>
+    <row r="173" ht="14.25" customHeight="1">
+      <c r="C173" s="15"/>
+    </row>
+    <row r="174" ht="14.25" customHeight="1">
+      <c r="C174" s="15"/>
+    </row>
+    <row r="175" ht="14.25" customHeight="1">
+      <c r="C175" s="15"/>
+    </row>
+    <row r="176" ht="14.25" customHeight="1">
+      <c r="C176" s="15"/>
+    </row>
+    <row r="177" ht="14.25" customHeight="1">
+      <c r="C177" s="15"/>
+    </row>
+    <row r="178" ht="14.25" customHeight="1">
+      <c r="C178" s="15"/>
+    </row>
+    <row r="179" ht="14.25" customHeight="1">
+      <c r="C179" s="15"/>
+    </row>
+    <row r="180" ht="14.25" customHeight="1">
+      <c r="C180" s="15"/>
+    </row>
+    <row r="181" ht="14.25" customHeight="1">
+      <c r="C181" s="15"/>
+    </row>
+    <row r="182" ht="14.25" customHeight="1">
+      <c r="C182" s="15"/>
+    </row>
+    <row r="183" ht="14.25" customHeight="1">
+      <c r="C183" s="15"/>
+    </row>
+    <row r="184" ht="14.25" customHeight="1">
+      <c r="C184" s="15"/>
+    </row>
+    <row r="185" ht="14.25" customHeight="1">
+      <c r="C185" s="15"/>
+    </row>
+    <row r="186" ht="14.25" customHeight="1">
+      <c r="C186" s="15"/>
+    </row>
+    <row r="187" ht="14.25" customHeight="1">
+      <c r="C187" s="15"/>
+    </row>
+    <row r="188" ht="14.25" customHeight="1">
+      <c r="C188" s="15"/>
+    </row>
+    <row r="189" ht="14.25" customHeight="1">
+      <c r="C189" s="15"/>
+    </row>
+    <row r="190" ht="14.25" customHeight="1">
+      <c r="C190" s="15"/>
+    </row>
+    <row r="191" ht="14.25" customHeight="1">
+      <c r="C191" s="15"/>
+    </row>
+    <row r="192" ht="14.25" customHeight="1">
+      <c r="C192" s="15"/>
+    </row>
+    <row r="193" ht="14.25" customHeight="1">
+      <c r="C193" s="15"/>
+    </row>
+    <row r="194" ht="14.25" customHeight="1">
+      <c r="C194" s="15"/>
+    </row>
+    <row r="195" ht="14.25" customHeight="1">
+      <c r="C195" s="15"/>
+    </row>
+    <row r="196" ht="14.25" customHeight="1">
+      <c r="C196" s="15"/>
+    </row>
+    <row r="197" ht="14.25" customHeight="1">
+      <c r="C197" s="15"/>
+    </row>
+    <row r="198" ht="14.25" customHeight="1">
+      <c r="C198" s="15"/>
+    </row>
+    <row r="199" ht="14.25" customHeight="1">
+      <c r="C199" s="15"/>
+    </row>
+    <row r="200" ht="14.25" customHeight="1">
+      <c r="C200" s="15"/>
+    </row>
+    <row r="201" ht="14.25" customHeight="1">
+      <c r="C201" s="15"/>
+    </row>
+    <row r="202" ht="14.25" customHeight="1">
+      <c r="C202" s="15"/>
+    </row>
+    <row r="203" ht="14.25" customHeight="1">
+      <c r="C203" s="15"/>
+    </row>
+    <row r="204" ht="14.25" customHeight="1">
+      <c r="C204" s="15"/>
+    </row>
+    <row r="205" ht="14.25" customHeight="1">
+      <c r="C205" s="15"/>
+    </row>
+    <row r="206" ht="14.25" customHeight="1">
+      <c r="C206" s="15"/>
+    </row>
+    <row r="207" ht="14.25" customHeight="1">
+      <c r="C207" s="15"/>
+    </row>
+    <row r="208" ht="14.25" customHeight="1">
+      <c r="C208" s="15"/>
+    </row>
+    <row r="209" ht="14.25" customHeight="1">
+      <c r="C209" s="15"/>
+    </row>
+    <row r="210" ht="14.25" customHeight="1">
+      <c r="C210" s="15"/>
+    </row>
+    <row r="211" ht="14.25" customHeight="1">
+      <c r="C211" s="15"/>
+    </row>
+    <row r="212" ht="14.25" customHeight="1">
+      <c r="C212" s="15"/>
+    </row>
+    <row r="213" ht="14.25" customHeight="1">
+      <c r="C213" s="15"/>
+    </row>
+    <row r="214" ht="14.25" customHeight="1">
+      <c r="C214" s="15"/>
+    </row>
+    <row r="215" ht="14.25" customHeight="1">
+      <c r="C215" s="15"/>
+    </row>
+    <row r="216" ht="14.25" customHeight="1">
+      <c r="C216" s="15"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="C217" s="15"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="C218" s="15"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="C219" s="15"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="C220" s="15"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -4686,3084 +6255,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="2" width="25.38"/>
-    <col customWidth="1" min="3" max="3" width="7.13"/>
-    <col customWidth="1" min="4" max="6" width="8.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="13">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="13">
-        <v>4.989</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4.9879999999999995</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="13">
-        <v>4.989</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4.9879999999999995</v>
-      </c>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="15"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="15"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="15"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="15"/>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="15"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="15"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="15"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="15"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="15"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="15"/>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="15"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="15"/>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="15"/>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="15"/>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="15"/>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="15"/>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="15"/>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="15"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="15"/>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="15"/>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="15"/>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="15"/>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="15"/>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="15"/>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="15"/>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="15"/>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="15"/>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="15"/>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="15"/>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="15"/>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="15"/>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="15"/>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="15"/>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="15"/>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="15"/>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="15"/>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="15"/>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="15"/>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="15"/>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="15"/>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="15"/>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="15"/>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="15"/>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="15"/>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="15"/>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="15"/>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="15"/>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="15"/>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="15"/>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="15"/>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="15"/>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="15"/>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="15"/>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="15"/>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="15"/>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="15"/>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="15"/>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="15"/>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="15"/>
-    </row>
-    <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="15"/>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="15"/>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="15"/>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="15"/>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="15"/>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="15"/>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="15"/>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="15"/>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="15"/>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="15"/>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="15"/>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="15"/>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="15"/>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="15"/>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="15"/>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="15"/>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="15"/>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="15"/>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="15"/>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="15"/>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="15"/>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="15"/>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="15"/>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="15"/>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="15"/>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="15"/>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="15"/>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="15"/>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="15"/>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="15"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="15"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="15"/>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="15"/>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="15"/>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="15"/>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="15"/>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="15"/>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="15"/>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="15"/>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="15"/>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="15"/>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="15"/>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="15"/>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="15"/>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="15"/>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="15"/>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="15"/>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="15"/>
-    </row>
-    <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="15"/>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="15"/>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="15"/>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="15"/>
-    </row>
-    <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="15"/>
-    </row>
-    <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="15"/>
-    </row>
-    <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="15"/>
-    </row>
-    <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="15"/>
-    </row>
-    <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="15"/>
-    </row>
-    <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="15"/>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="15"/>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
-      <c r="C157" s="15"/>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
-      <c r="C158" s="15"/>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
-      <c r="C159" s="15"/>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
-      <c r="C160" s="15"/>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
-      <c r="C161" s="15"/>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
-      <c r="C162" s="15"/>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="C163" s="15"/>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
-      <c r="C164" s="15"/>
-    </row>
-    <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="15"/>
-    </row>
-    <row r="166" ht="14.25" customHeight="1">
-      <c r="C166" s="15"/>
-    </row>
-    <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="15"/>
-    </row>
-    <row r="168" ht="14.25" customHeight="1">
-      <c r="C168" s="15"/>
-    </row>
-    <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="15"/>
-    </row>
-    <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="15"/>
-    </row>
-    <row r="171" ht="14.25" customHeight="1">
-      <c r="C171" s="15"/>
-    </row>
-    <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="15"/>
-    </row>
-    <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="15"/>
-    </row>
-    <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="15"/>
-    </row>
-    <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="15"/>
-    </row>
-    <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="15"/>
-    </row>
-    <row r="177" ht="14.25" customHeight="1">
-      <c r="C177" s="15"/>
-    </row>
-    <row r="178" ht="14.25" customHeight="1">
-      <c r="C178" s="15"/>
-    </row>
-    <row r="179" ht="14.25" customHeight="1">
-      <c r="C179" s="15"/>
-    </row>
-    <row r="180" ht="14.25" customHeight="1">
-      <c r="C180" s="15"/>
-    </row>
-    <row r="181" ht="14.25" customHeight="1">
-      <c r="C181" s="15"/>
-    </row>
-    <row r="182" ht="14.25" customHeight="1">
-      <c r="C182" s="15"/>
-    </row>
-    <row r="183" ht="14.25" customHeight="1">
-      <c r="C183" s="15"/>
-    </row>
-    <row r="184" ht="14.25" customHeight="1">
-      <c r="C184" s="15"/>
-    </row>
-    <row r="185" ht="14.25" customHeight="1">
-      <c r="C185" s="15"/>
-    </row>
-    <row r="186" ht="14.25" customHeight="1">
-      <c r="C186" s="15"/>
-    </row>
-    <row r="187" ht="14.25" customHeight="1">
-      <c r="C187" s="15"/>
-    </row>
-    <row r="188" ht="14.25" customHeight="1">
-      <c r="C188" s="15"/>
-    </row>
-    <row r="189" ht="14.25" customHeight="1">
-      <c r="C189" s="15"/>
-    </row>
-    <row r="190" ht="14.25" customHeight="1">
-      <c r="C190" s="15"/>
-    </row>
-    <row r="191" ht="14.25" customHeight="1">
-      <c r="C191" s="15"/>
-    </row>
-    <row r="192" ht="14.25" customHeight="1">
-      <c r="C192" s="15"/>
-    </row>
-    <row r="193" ht="14.25" customHeight="1">
-      <c r="C193" s="15"/>
-    </row>
-    <row r="194" ht="14.25" customHeight="1">
-      <c r="C194" s="15"/>
-    </row>
-    <row r="195" ht="14.25" customHeight="1">
-      <c r="C195" s="15"/>
-    </row>
-    <row r="196" ht="14.25" customHeight="1">
-      <c r="C196" s="15"/>
-    </row>
-    <row r="197" ht="14.25" customHeight="1">
-      <c r="C197" s="15"/>
-    </row>
-    <row r="198" ht="14.25" customHeight="1">
-      <c r="C198" s="15"/>
-    </row>
-    <row r="199" ht="14.25" customHeight="1">
-      <c r="C199" s="15"/>
-    </row>
-    <row r="200" ht="14.25" customHeight="1">
-      <c r="C200" s="15"/>
-    </row>
-    <row r="201" ht="14.25" customHeight="1">
-      <c r="C201" s="15"/>
-    </row>
-    <row r="202" ht="14.25" customHeight="1">
-      <c r="C202" s="15"/>
-    </row>
-    <row r="203" ht="14.25" customHeight="1">
-      <c r="C203" s="15"/>
-    </row>
-    <row r="204" ht="14.25" customHeight="1">
-      <c r="C204" s="15"/>
-    </row>
-    <row r="205" ht="14.25" customHeight="1">
-      <c r="C205" s="15"/>
-    </row>
-    <row r="206" ht="14.25" customHeight="1">
-      <c r="C206" s="15"/>
-    </row>
-    <row r="207" ht="14.25" customHeight="1">
-      <c r="C207" s="15"/>
-    </row>
-    <row r="208" ht="14.25" customHeight="1">
-      <c r="C208" s="15"/>
-    </row>
-    <row r="209" ht="14.25" customHeight="1">
-      <c r="C209" s="15"/>
-    </row>
-    <row r="210" ht="14.25" customHeight="1">
-      <c r="C210" s="15"/>
-    </row>
-    <row r="211" ht="14.25" customHeight="1">
-      <c r="C211" s="15"/>
-    </row>
-    <row r="212" ht="14.25" customHeight="1">
-      <c r="C212" s="15"/>
-    </row>
-    <row r="213" ht="14.25" customHeight="1">
-      <c r="C213" s="15"/>
-    </row>
-    <row r="214" ht="14.25" customHeight="1">
-      <c r="C214" s="15"/>
-    </row>
-    <row r="215" ht="14.25" customHeight="1">
-      <c r="C215" s="15"/>
-    </row>
-    <row r="216" ht="14.25" customHeight="1">
-      <c r="C216" s="15"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="15"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="15"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="15"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="15"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="15"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="15"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="15"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="15"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="15"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="15"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="15"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="15"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="15"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="15"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="15"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="15"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="15"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="15"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="15"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="15"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="15"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="15"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="15"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="15"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="15"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="15"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="15"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="15"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="15"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="15"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="15"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="15"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="15"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="15"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="15"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="15"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="15"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="15"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="15"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="15"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="15"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="15"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="15"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="15"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="15"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="15"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="15"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="15"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="15"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="15"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="15"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="15"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="15"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="15"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="15"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="15"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="15"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="15"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="15"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="15"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="15"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="15"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="15"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="15"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="15"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="15"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="15"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="15"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="15"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="15"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="15"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="15"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="15"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="15"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="15"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="15"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="15"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="15"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="15"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="15"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="15"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="15"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="15"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="15"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="15"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="15"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="15"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="15"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="15"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="15"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="15"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="15"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="15"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="15"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="15"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="15"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="15"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="15"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="15"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="15"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="15"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="15"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="15"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="15"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="15"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="15"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="15"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="15"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="15"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="15"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="15"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="15"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="15"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="15"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="15"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="15"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="15"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="15"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="15"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="15"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="15"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="15"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="15"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="15"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="15"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="15"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="15"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="15"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="15"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="15"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="15"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="15"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="15"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="15"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="15"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="15"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="15"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="15"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="15"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="15"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="15"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="15"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="15"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="15"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="15"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="15"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="15"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="15"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="15"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="15"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="15"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="15"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="15"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="15"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="15"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="15"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="15"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="15"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="15"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="15"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="15"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="15"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="15"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="15"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="15"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="15"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="15"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="15"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="15"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="15"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="15"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="15"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="15"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="15"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="15"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="15"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="15"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="15"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="15"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="15"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="15"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="15"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="15"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="15"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="15"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="15"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="15"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="15"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="15"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="15"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="15"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="15"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="15"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="15"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="15"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="15"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="15"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="15"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="15"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="15"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="15"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="15"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="15"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="15"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="15"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="15"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="C423" s="15"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="C424" s="15"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="C425" s="15"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="C426" s="15"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="C427" s="15"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="C428" s="15"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="C429" s="15"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="C430" s="15"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="C431" s="15"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="C432" s="15"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="C433" s="15"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="C434" s="15"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="C435" s="15"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="C436" s="15"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="C437" s="15"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="C438" s="15"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="C439" s="15"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="C440" s="15"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="C441" s="15"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="C442" s="15"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="C443" s="15"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="C444" s="15"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="C445" s="15"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="C446" s="15"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="C447" s="15"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="C448" s="15"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="C449" s="15"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="C450" s="15"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="C451" s="15"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="C452" s="15"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="C453" s="15"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="C454" s="15"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="C455" s="15"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="C456" s="15"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="C457" s="15"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="C458" s="15"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="C459" s="15"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="C460" s="15"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="C461" s="15"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="C462" s="15"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="C463" s="15"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="C464" s="15"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="C465" s="15"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="C466" s="15"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="C467" s="15"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="C468" s="15"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="C469" s="15"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="C470" s="15"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="C471" s="15"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="C472" s="15"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="C473" s="15"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="C474" s="15"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="C475" s="15"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="C476" s="15"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="C477" s="15"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="C478" s="15"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="C479" s="15"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="C480" s="15"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="C481" s="15"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="C482" s="15"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="C483" s="15"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="C484" s="15"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="C485" s="15"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="C486" s="15"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="C487" s="15"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="C488" s="15"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="C489" s="15"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="C490" s="15"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="C491" s="15"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="C492" s="15"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="C493" s="15"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="C494" s="15"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="C495" s="15"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="C496" s="15"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="C497" s="15"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="C498" s="15"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="C499" s="15"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="C500" s="15"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="C501" s="15"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="C502" s="15"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="C503" s="15"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="C504" s="15"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="C505" s="15"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="C506" s="15"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="C507" s="15"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="C508" s="15"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="C509" s="15"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="C510" s="15"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="C511" s="15"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="C512" s="15"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="C513" s="15"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="C514" s="15"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="C515" s="15"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="C516" s="15"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="C517" s="15"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="C518" s="15"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="C519" s="15"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="C520" s="15"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="C521" s="15"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="C522" s="15"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="C523" s="15"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="C524" s="15"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="C525" s="15"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="C526" s="15"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="C527" s="15"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="C528" s="15"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="C529" s="15"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="C530" s="15"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="C531" s="15"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="C532" s="15"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="C533" s="15"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="C534" s="15"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="C535" s="15"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="C536" s="15"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="C537" s="15"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="C538" s="15"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="C539" s="15"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="C540" s="15"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="C541" s="15"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="C542" s="15"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="C543" s="15"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="C544" s="15"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="C545" s="15"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="C546" s="15"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="C547" s="15"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="C548" s="15"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="C549" s="15"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="C550" s="15"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="C551" s="15"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="C552" s="15"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="C553" s="15"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="C554" s="15"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="C555" s="15"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="C556" s="15"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="C557" s="15"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="C558" s="15"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="C559" s="15"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="C560" s="15"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="C561" s="15"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="C562" s="15"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="C563" s="15"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="C564" s="15"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="C565" s="15"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="C566" s="15"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="C567" s="15"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="C568" s="15"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="C569" s="15"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="C570" s="15"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="C571" s="15"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="C572" s="15"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="C573" s="15"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="C574" s="15"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="C575" s="15"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="C576" s="15"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="C577" s="15"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="C578" s="15"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="C579" s="15"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="C580" s="15"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="C581" s="15"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="C582" s="15"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="C583" s="15"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="C584" s="15"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="C585" s="15"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="C586" s="15"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="C587" s="15"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="C588" s="15"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="C589" s="15"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="C590" s="15"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="C591" s="15"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="C592" s="15"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="C593" s="15"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="C594" s="15"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="C595" s="15"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="C596" s="15"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="C597" s="15"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="C598" s="15"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="C599" s="15"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="C600" s="15"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="C601" s="15"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="C602" s="15"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="C603" s="15"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="C604" s="15"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="C605" s="15"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="C606" s="15"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="C607" s="15"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="C608" s="15"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="C609" s="15"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="C610" s="15"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="C611" s="15"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="C612" s="15"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="C613" s="15"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="C614" s="15"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="C615" s="15"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="C616" s="15"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="C617" s="15"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="C618" s="15"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="C619" s="15"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="C620" s="15"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="C621" s="15"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="C622" s="15"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="C623" s="15"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="C624" s="15"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="C625" s="15"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="C626" s="15"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="C627" s="15"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="C628" s="15"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="C629" s="15"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="C630" s="15"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="C631" s="15"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="C632" s="15"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="C633" s="15"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="C634" s="15"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="C635" s="15"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="C636" s="15"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="C637" s="15"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="C638" s="15"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="C639" s="15"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="C640" s="15"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="C641" s="15"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="C642" s="15"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="C643" s="15"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="C644" s="15"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="C645" s="15"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="C646" s="15"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="C647" s="15"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="C648" s="15"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="C649" s="15"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="C650" s="15"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="C651" s="15"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="C652" s="15"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="C653" s="15"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="C654" s="15"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="C655" s="15"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="C656" s="15"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="C657" s="15"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="C658" s="15"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="C659" s="15"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="C660" s="15"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="C661" s="15"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="C662" s="15"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="C663" s="15"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="C664" s="15"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="C665" s="15"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="C666" s="15"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="C667" s="15"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="C668" s="15"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="C669" s="15"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="C670" s="15"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="C671" s="15"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="C672" s="15"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="C673" s="15"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="C674" s="15"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="C675" s="15"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="C676" s="15"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="C677" s="15"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="C678" s="15"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="C679" s="15"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="C680" s="15"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="C681" s="15"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="C682" s="15"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="C683" s="15"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="C684" s="15"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="C685" s="15"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="C686" s="15"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="C687" s="15"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="C688" s="15"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="C689" s="15"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="C690" s="15"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="C691" s="15"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="C692" s="15"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="C693" s="15"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="C694" s="15"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="C695" s="15"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="C696" s="15"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="C697" s="15"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="C698" s="15"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="C699" s="15"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="C700" s="15"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="C701" s="15"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="C702" s="15"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="C703" s="15"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="C704" s="15"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="C705" s="15"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="C706" s="15"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="C707" s="15"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="C708" s="15"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="C709" s="15"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="C710" s="15"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="C711" s="15"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="C712" s="15"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="C713" s="15"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="C714" s="15"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="C715" s="15"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="C716" s="15"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="C717" s="15"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="C718" s="15"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="C719" s="15"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="C720" s="15"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="C721" s="15"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="C722" s="15"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="C723" s="15"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="C724" s="15"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="C725" s="15"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="C726" s="15"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="C727" s="15"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="C728" s="15"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="C729" s="15"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="C730" s="15"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="C731" s="15"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="C732" s="15"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="C733" s="15"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="C734" s="15"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="C735" s="15"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="C736" s="15"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="C737" s="15"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="C738" s="15"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="C739" s="15"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="C740" s="15"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="C741" s="15"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="C742" s="15"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="C743" s="15"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="C744" s="15"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="C745" s="15"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="C746" s="15"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="C747" s="15"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="C748" s="15"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="C749" s="15"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="C750" s="15"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="C751" s="15"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="C752" s="15"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="C753" s="15"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="C754" s="15"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="C755" s="15"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="C756" s="15"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="C757" s="15"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="C758" s="15"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="C759" s="15"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="C760" s="15"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="C761" s="15"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="C762" s="15"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="C763" s="15"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="C764" s="15"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="C765" s="15"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="C766" s="15"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="C767" s="15"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="C768" s="15"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="C769" s="15"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="C770" s="15"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="C771" s="15"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="C772" s="15"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="C773" s="15"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="C774" s="15"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="C775" s="15"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="C776" s="15"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="C777" s="15"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="C778" s="15"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="C779" s="15"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="C780" s="15"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="C781" s="15"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="C782" s="15"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="C783" s="15"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="C784" s="15"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="C785" s="15"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="C786" s="15"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="C787" s="15"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="C788" s="15"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="C789" s="15"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="C790" s="15"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="C791" s="15"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="C792" s="15"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="C793" s="15"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="C794" s="15"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="C795" s="15"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="C796" s="15"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="C797" s="15"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="C798" s="15"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="C799" s="15"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="C800" s="15"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="C801" s="15"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="C802" s="15"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="C803" s="15"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="C804" s="15"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="C805" s="15"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="C806" s="15"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="C807" s="15"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="C808" s="15"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="C809" s="15"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="C810" s="15"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="C811" s="15"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="C812" s="15"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="C813" s="15"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="C814" s="15"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="C815" s="15"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="C816" s="15"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="C817" s="15"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="C818" s="15"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="C819" s="15"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="C820" s="15"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="C821" s="15"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="C822" s="15"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="C823" s="15"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="C824" s="15"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="C825" s="15"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="C826" s="15"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="C827" s="15"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="C828" s="15"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="C829" s="15"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="C830" s="15"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="C831" s="15"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="C832" s="15"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="C833" s="15"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="C834" s="15"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="C835" s="15"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="C836" s="15"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="C837" s="15"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="C838" s="15"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="C839" s="15"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="C840" s="15"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="C841" s="15"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="C842" s="15"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="C843" s="15"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="C844" s="15"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="C845" s="15"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="C846" s="15"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="C847" s="15"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="C848" s="15"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="C849" s="15"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="C850" s="15"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="C851" s="15"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="C852" s="15"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="C853" s="15"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="C854" s="15"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="C855" s="15"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="C856" s="15"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="C857" s="15"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="C858" s="15"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="C859" s="15"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="C860" s="15"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="C861" s="15"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="C862" s="15"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="C863" s="15"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="C864" s="15"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="C865" s="15"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="C866" s="15"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="C867" s="15"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="C868" s="15"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="C869" s="15"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="C870" s="15"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="C871" s="15"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="C872" s="15"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="C873" s="15"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="C874" s="15"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="C875" s="15"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="C876" s="15"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="C877" s="15"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="C878" s="15"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="C879" s="15"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="C880" s="15"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="C881" s="15"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="C882" s="15"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="C883" s="15"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="C884" s="15"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="C885" s="15"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="C886" s="15"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="C887" s="15"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="C888" s="15"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="C889" s="15"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="C890" s="15"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="C891" s="15"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="C892" s="15"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="C893" s="15"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="C894" s="15"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="C895" s="15"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="C896" s="15"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="C897" s="15"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="C898" s="15"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="C899" s="15"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="C900" s="15"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="C901" s="15"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="C902" s="15"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="C903" s="15"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="C904" s="15"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="C905" s="15"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="C906" s="15"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="C907" s="15"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="C908" s="15"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="C909" s="15"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="C910" s="15"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="C911" s="15"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="C912" s="15"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="C913" s="15"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="C914" s="15"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="C915" s="15"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="C916" s="15"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="C917" s="15"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="C918" s="15"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="C919" s="15"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="C920" s="15"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="C921" s="15"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="C922" s="15"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="C923" s="15"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="C924" s="15"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="C925" s="15"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="C926" s="15"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="C927" s="15"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="C928" s="15"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="C929" s="15"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="C930" s="15"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="C931" s="15"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="C932" s="15"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="C933" s="15"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="C934" s="15"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="C935" s="15"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="C936" s="15"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="C937" s="15"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="C938" s="15"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="C939" s="15"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="C940" s="15"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="C941" s="15"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="C942" s="15"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="C943" s="15"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="C944" s="15"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="C945" s="15"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="C946" s="15"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="C947" s="15"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="C948" s="15"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="C949" s="15"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="C950" s="15"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="C951" s="15"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="C952" s="15"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="C953" s="15"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="C954" s="15"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="C955" s="15"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="C956" s="15"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="C957" s="15"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="C958" s="15"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="C959" s="15"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="C960" s="15"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="C961" s="15"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="C962" s="15"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="C963" s="15"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="C964" s="15"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="C965" s="15"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="C966" s="15"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="C967" s="15"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="C968" s="15"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="C969" s="15"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="C970" s="15"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="C971" s="15"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="C972" s="15"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="C973" s="15"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="C974" s="15"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="C975" s="15"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="C976" s="15"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="C977" s="15"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="C978" s="15"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="C979" s="15"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="15"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="C981" s="15"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="C982" s="15"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="C983" s="15"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="C984" s="15"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="C985" s="15"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="C986" s="15"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="C987" s="15"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="C988" s="15"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="C989" s="15"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="C990" s="15"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="C991" s="15"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="C992" s="15"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="C993" s="15"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="C994" s="15"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="15"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="15"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="15"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="15"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="15"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="15"/>
-    </row>
-  </sheetData>
   <autoFilter ref="$A$1:$C$6">
     <sortState ref="A1:C6">
       <sortCondition descending="1" ref="C1:C6"/>

--- a/resume_data.xlsx
+++ b/resume_data.xlsx
@@ -7,6 +7,7 @@
     <sheet state="visible" name="skills" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">positions!$A$1:$M$12</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">skills!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>section</t>
   </si>
@@ -58,46 +59,28 @@
     <t>education</t>
   </si>
   <si>
-    <t>Graduate Diploma of Chartered Accounting</t>
-  </si>
-  <si>
-    <t>Chartered Accountants Australia and New Zealand</t>
+    <t>Master of Professional Accounting</t>
+  </si>
+  <si>
+    <t>University of New South Wales</t>
   </si>
   <si>
     <t>Sydney, Australia</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>Master of Professional Accounting</t>
-  </si>
-  <si>
-    <t>University of New South Wales</t>
-  </si>
-  <si>
     <t>2017</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
-    <t>Exchange Student Program (Major in Accounting)</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Bachelor of Management (Major in Accounting)</t>
   </si>
   <si>
     <t>Hebei University of Economics and Business</t>
   </si>
   <si>
-    <t>Shijiazhuang, China</t>
+    <t>China</t>
   </si>
   <si>
     <t>2013</t>
@@ -118,19 +101,19 @@
     <t>Present</t>
   </si>
   <si>
-    <t>Utilised data analysis and visualisation/dashboard techniques to provide clients with powerful business insights regarding their data. This would in turn help them make informed strategic decisions. Tools used include Alteryx, SQL, Power BI, Python, R, Tableau and Qlik Sense.</t>
-  </si>
-  <si>
-    <t>Assisted clients in the identification and management of business risks by assessing the current state, prioritising improvements and conducting projects to reduce risk, standardise and automate business processes</t>
-  </si>
-  <si>
-    <t>Identified and remediated control and performance gaps compared to leading practice, helped clients gain business insights and achieve commercial objectives</t>
-  </si>
-  <si>
-    <t>Worked closely with both internal and external stakeholders to initiate decisions and execute implementation that drive projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provided coaching and mentoring to junior team members which help them grow </t>
+    <t>Leveraged advanced data analysis and visualization methodologies to equip clients with critical insights from their data, enabling them to make strategic, informed decisions. Employed a suite of tools including SQL, Tableau, Excel, Python, R for this purpose.</t>
+  </si>
+  <si>
+    <t>Implemented data pipelines for diverse projects, involving the creation of data tables and formulation of SQL queries, complemented by meticulous data validation, modelling and visualization. This process was enhanced using tools like SQL, Git, and cloud platforms such as GCP, AWS, and Azure.</t>
+  </si>
+  <si>
+    <t>Collaborated effectively with both internal and external stakeholders to facilitate decision-making and implement strategies that propelled project advancement. Bridged the gap between technical and non-technical teams, aligning data insights with strategic business objectives.</t>
+  </si>
+  <si>
+    <t>Led the development of standardized data assets and was responsible for providing comprehensive documentation, quality control, and training to the team. This initiative significantly elevated job quality and resulted in a remarkable 50% improvement in team efficiency.</t>
+  </si>
+  <si>
+    <t>Successfully collaborated with clients and internal teams, encompassing both technical and non-technical backgrounds. Utilized strong communication skills to navigate intricate technical and business discussions, effectively driving project delivery and aiding clients in strategically achieving their business objectives.</t>
   </si>
   <si>
     <t>Consultant, Data Analytics</t>
@@ -145,10 +128,7 @@
     <t xml:space="preserve">Worked on data analysis and visualisation, and bring data analytic techniques to bear on a wide variety of problems. </t>
   </si>
   <si>
-    <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties. Tools used include: Google App Script, Python and VBA</t>
-  </si>
-  <si>
-    <t>Highly experienced in data remediation projects. Helped clients understand and remediate compliance issues.</t>
+    <t>Developed and maintained easy-to-use product and provided training and documentation for both internal and external parties.</t>
   </si>
   <si>
     <t>Finance Analyst</t>
@@ -241,19 +221,19 @@
     <t>Skills</t>
   </si>
   <si>
-    <t>Cloud (AWS/GCP)</t>
-  </si>
-  <si>
-    <t>Python/R/SQL/Alteryx</t>
-  </si>
-  <si>
-    <t>Power BI/Qlik/Tableau</t>
-  </si>
-  <si>
-    <t>Business/Communication</t>
-  </si>
-  <si>
-    <t>Leadership/Management</t>
+    <t>SQL/Python/Excel</t>
+  </si>
+  <si>
+    <t>AWS/GCP/BigQuery</t>
+  </si>
+  <si>
+    <t>Tableau/Power BI/Qlik</t>
+  </si>
+  <si>
+    <t>Git/Version Control</t>
+  </si>
+  <si>
+    <t>Teamwork/Communication</t>
   </si>
 </sst>
 </file>
@@ -316,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -326,20 +306,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -643,19 +626,19 @@
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="1"/>
@@ -680,14 +663,14 @@
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -698,242 +681,236 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" ht="183.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" ht="201.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="8"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" ht="183.75" customHeight="1">
+    <row r="6" ht="60.0" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" ht="201.75" customHeight="1">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" ht="60.0" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="1"/>
+      <c r="H7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="9"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" ht="60.0" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
     </row>
     <row r="9" ht="60.0" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="8"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" ht="60.0" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" ht="60.0" customHeight="1">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
@@ -944,98 +921,70 @@
       <c r="D11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" ht="78.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" ht="78.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1045,12 +994,12 @@
       <c r="O14" s="1"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1060,11 +1009,10 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1075,11 +1023,11 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1090,13 +1038,14 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1104,71 +1053,71 @@
       <c r="O18" s="1"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1179,11 +1128,11 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="2"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1194,11 +1143,11 @@
       <c r="O24" s="1"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="2"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1209,11 +1158,11 @@
       <c r="O25" s="1"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="2"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1224,11 +1173,11 @@
       <c r="O26" s="1"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="2"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1239,11 +1188,11 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="2"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1254,11 +1203,11 @@
       <c r="O28" s="1"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="2"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1269,11 +1218,11 @@
       <c r="O29" s="1"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="2"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1284,11 +1233,11 @@
       <c r="O30" s="1"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="10"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1299,11 +1248,11 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="10"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1314,11 +1263,11 @@
       <c r="O32" s="1"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="10"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1329,11 +1278,11 @@
       <c r="O33" s="1"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="10"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1344,11 +1293,11 @@
       <c r="O34" s="1"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="10"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1359,11 +1308,11 @@
       <c r="O35" s="1"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="10"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1374,11 +1323,11 @@
       <c r="O36" s="1"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="10"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1389,11 +1338,11 @@
       <c r="O37" s="1"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="10"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
       <c r="H38" s="2"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1404,11 +1353,11 @@
       <c r="O38" s="1"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="10"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1419,11 +1368,11 @@
       <c r="O39" s="1"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="10"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1434,11 +1383,11 @@
       <c r="O40" s="1"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="10"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
       <c r="H41" s="2"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1449,11 +1398,11 @@
       <c r="O41" s="1"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="10"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
       <c r="H42" s="2"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1464,11 +1413,11 @@
       <c r="O42" s="1"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="10"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
       <c r="H43" s="2"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1479,11 +1428,11 @@
       <c r="O43" s="1"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="10"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
       <c r="H44" s="2"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1494,11 +1443,11 @@
       <c r="O44" s="1"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="10"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1509,11 +1458,11 @@
       <c r="O45" s="1"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="10"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
       <c r="H46" s="2"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1524,11 +1473,11 @@
       <c r="O46" s="1"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="10"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
       <c r="H47" s="2"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1539,11 +1488,11 @@
       <c r="O47" s="1"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="10"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
       <c r="H48" s="2"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1554,11 +1503,11 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="10"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
       <c r="H49" s="2"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1569,11 +1518,11 @@
       <c r="O49" s="1"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="10"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
       <c r="H50" s="2"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1584,11 +1533,11 @@
       <c r="O50" s="1"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="10"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
       <c r="H51" s="2"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1599,11 +1548,11 @@
       <c r="O51" s="1"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="10"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
       <c r="H52" s="2"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1614,11 +1563,11 @@
       <c r="O52" s="1"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="10"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
       <c r="H53" s="2"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1629,11 +1578,11 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="10"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
       <c r="H54" s="2"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1644,11 +1593,11 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="10"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="2"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1659,11 +1608,11 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="10"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
       <c r="H56" s="2"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1674,11 +1623,11 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="10"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
       <c r="H57" s="2"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1689,11 +1638,11 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="10"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
       <c r="H58" s="2"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1704,11 +1653,11 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="10"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
       <c r="H59" s="2"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1719,11 +1668,11 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="10"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
       <c r="H60" s="2"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1734,11 +1683,11 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="10"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
       <c r="H61" s="2"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1749,11 +1698,11 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="10"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
       <c r="H62" s="2"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1764,11 +1713,11 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="10"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
       <c r="H63" s="2"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1779,11 +1728,11 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="10"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
       <c r="H64" s="2"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1794,11 +1743,11 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="10"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
       <c r="H65" s="2"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1809,11 +1758,11 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="10"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
       <c r="H66" s="2"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1824,11 +1773,11 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="10"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
       <c r="H67" s="2"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -1839,11 +1788,11 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="10"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="2"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -1854,11 +1803,11 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="2"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -1869,11 +1818,11 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="2"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -1884,11 +1833,11 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="10"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="2"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -1899,11 +1848,11 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
       <c r="H72" s="2"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -1914,11 +1863,11 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="10"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="2"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -1929,11 +1878,11 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="2"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -1944,11 +1893,11 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
       <c r="H75" s="2"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -1959,11 +1908,11 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="2"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -1974,11 +1923,11 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="10"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
       <c r="H77" s="2"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -1989,11 +1938,11 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="10"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
       <c r="H78" s="2"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2004,11 +1953,11 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="10"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
       <c r="H79" s="2"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2019,11 +1968,11 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="10"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
       <c r="H80" s="2"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -2034,11 +1983,11 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="10"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
       <c r="H81" s="2"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2049,11 +1998,11 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="10"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
       <c r="H82" s="2"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2064,11 +2013,11 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="10"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
       <c r="H83" s="2"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2079,11 +2028,11 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="10"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
       <c r="H84" s="2"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2094,11 +2043,11 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="10"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
       <c r="H85" s="2"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2109,11 +2058,11 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="10"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
       <c r="H86" s="2"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2124,11 +2073,11 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="10"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
       <c r="H87" s="2"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2139,11 +2088,11 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="10"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
       <c r="H88" s="2"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2154,11 +2103,11 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="10"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
       <c r="H89" s="2"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2169,11 +2118,11 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="10"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2184,11 +2133,11 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="10"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
       <c r="H91" s="2"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -2199,11 +2148,11 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="10"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="2"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2214,11 +2163,11 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="10"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
       <c r="H93" s="2"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2229,11 +2178,11 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="10"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2244,11 +2193,11 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="10"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
       <c r="H95" s="2"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2259,11 +2208,11 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="10"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
       <c r="H96" s="2"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -2274,11 +2223,11 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="10"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -2289,11 +2238,11 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="10"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="2"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -2304,11 +2253,11 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="10"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
       <c r="H99" s="2"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -2319,11 +2268,11 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="10"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
       <c r="H100" s="2"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -2334,11 +2283,11 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="10"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
       <c r="H101" s="2"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2349,11 +2298,11 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="10"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
       <c r="H102" s="2"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -2364,11 +2313,11 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="10"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
       <c r="H103" s="2"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -2379,11 +2328,11 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="10"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
       <c r="H104" s="2"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -2394,11 +2343,11 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="10"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
       <c r="H105" s="2"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -2409,11 +2358,11 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="10"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
       <c r="H106" s="2"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -2424,11 +2373,11 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="10"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
       <c r="H107" s="2"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -2439,11 +2388,11 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="10"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
       <c r="H108" s="2"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -2454,11 +2403,11 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="10"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
       <c r="H109" s="2"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -2469,11 +2418,11 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="10"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
       <c r="H110" s="2"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -2484,11 +2433,11 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="10"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
       <c r="H111" s="2"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -2499,11 +2448,11 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="10"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
       <c r="H112" s="2"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -2514,11 +2463,11 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="10"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
       <c r="H113" s="2"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -2529,11 +2478,11 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="10"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
       <c r="H114" s="2"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -2544,11 +2493,11 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="10"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
       <c r="H115" s="2"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -2559,11 +2508,11 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="10"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="2"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -2574,11 +2523,11 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="10"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
       <c r="H117" s="2"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -2589,11 +2538,11 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="10"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
       <c r="H118" s="2"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -2604,11 +2553,11 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="10"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
       <c r="H119" s="2"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -2619,11 +2568,11 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="10"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
       <c r="H120" s="2"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -2634,11 +2583,11 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="10"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
       <c r="H121" s="2"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -2649,11 +2598,11 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="10"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
       <c r="H122" s="2"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -2664,11 +2613,11 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="10"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
       <c r="H123" s="2"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -2679,11 +2628,11 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="10"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
       <c r="H124" s="2"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -2694,11 +2643,11 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="10"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
       <c r="H125" s="2"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -2709,11 +2658,11 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="10"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
       <c r="H126" s="2"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -2724,11 +2673,11 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="10"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
       <c r="H127" s="2"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -2739,11 +2688,11 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="10"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
       <c r="H128" s="2"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -2754,11 +2703,11 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="10"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
       <c r="H129" s="2"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -2769,11 +2718,11 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="10"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
       <c r="H130" s="2"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -2784,11 +2733,11 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="10"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
       <c r="H131" s="2"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -2799,11 +2748,11 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="10"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
       <c r="H132" s="2"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -2814,11 +2763,11 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="10"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
       <c r="H133" s="2"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -2829,11 +2778,11 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="10"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
       <c r="H134" s="2"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -2844,11 +2793,11 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="10"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
       <c r="H135" s="2"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -2859,11 +2808,11 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="10"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
       <c r="H136" s="2"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -2874,11 +2823,11 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="10"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
       <c r="H137" s="2"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -2889,11 +2838,11 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="10"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
       <c r="H138" s="2"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -2904,11 +2853,11 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="10"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10"/>
-      <c r="G139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
       <c r="H139" s="2"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -2919,11 +2868,11 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="10"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
-      <c r="G140" s="10"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
       <c r="H140" s="2"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -2934,11 +2883,11 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="10"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
       <c r="H141" s="2"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -2949,11 +2898,11 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="10"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
       <c r="H142" s="2"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -2964,11 +2913,11 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="10"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="10"/>
-      <c r="F143" s="10"/>
-      <c r="G143" s="10"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
       <c r="H143" s="2"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -2979,11 +2928,11 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="10"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
-      <c r="G144" s="10"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
       <c r="H144" s="2"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -2994,11 +2943,11 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="10"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="10"/>
-      <c r="F145" s="10"/>
-      <c r="G145" s="10"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
       <c r="H145" s="2"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -3009,11 +2958,11 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="10"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="2"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -3024,11 +2973,11 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="10"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="2"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -3039,11 +2988,11 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="10"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="2"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -3054,11 +3003,11 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="2"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -3069,11 +3018,11 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10"/>
-      <c r="G150" s="10"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
       <c r="H150" s="2"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -3084,11 +3033,11 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="2"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -3099,11 +3048,11 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="10"/>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
       <c r="H152" s="2"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -3114,12 +3063,9 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="2"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
@@ -3129,12 +3075,9 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="2"/>
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
@@ -3144,8 +3087,8 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -3156,8 +3099,8 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -3168,8 +3111,8 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="F157" s="10"/>
-      <c r="G157" s="10"/>
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -3180,8 +3123,8 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="F158" s="10"/>
-      <c r="G158" s="10"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -3192,8 +3135,8 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -3204,8 +3147,8 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="F160" s="10"/>
-      <c r="G160" s="10"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -3216,8 +3159,8 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="F161" s="10"/>
-      <c r="G161" s="10"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -3228,8 +3171,8 @@
       <c r="O161" s="1"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="F162" s="10"/>
-      <c r="G162" s="10"/>
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -3240,8 +3183,8 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="F163" s="10"/>
-      <c r="G163" s="10"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -3252,8 +3195,8 @@
       <c r="O163" s="1"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="F164" s="10"/>
-      <c r="G164" s="10"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -3264,8 +3207,8 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="F165" s="10"/>
-      <c r="G165" s="10"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -3276,8 +3219,8 @@
       <c r="O165" s="1"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="F166" s="10"/>
-      <c r="G166" s="10"/>
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -3288,8 +3231,8 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="F167" s="10"/>
-      <c r="G167" s="10"/>
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -3300,8 +3243,8 @@
       <c r="O167" s="1"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="F168" s="10"/>
-      <c r="G168" s="10"/>
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -3312,8 +3255,8 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="F169" s="10"/>
-      <c r="G169" s="10"/>
+      <c r="F169" s="11"/>
+      <c r="G169" s="11"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -3324,8 +3267,8 @@
       <c r="O169" s="1"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="F170" s="10"/>
-      <c r="G170" s="10"/>
+      <c r="F170" s="11"/>
+      <c r="G170" s="11"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -3336,8 +3279,8 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -3348,8 +3291,8 @@
       <c r="O171" s="1"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="F172" s="10"/>
-      <c r="G172" s="10"/>
+      <c r="F172" s="11"/>
+      <c r="G172" s="11"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -3360,8 +3303,8 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -3372,8 +3315,8 @@
       <c r="O173" s="1"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -3384,8 +3327,8 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="F175" s="10"/>
-      <c r="G175" s="10"/>
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -3396,8 +3339,8 @@
       <c r="O175" s="1"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="F176" s="10"/>
-      <c r="G176" s="10"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -3408,8 +3351,8 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="F177" s="10"/>
-      <c r="G177" s="10"/>
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -3420,8 +3363,8 @@
       <c r="O177" s="1"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="F178" s="10"/>
-      <c r="G178" s="10"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -3432,8 +3375,8 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="F179" s="10"/>
-      <c r="G179" s="10"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -3444,8 +3387,8 @@
       <c r="O179" s="1"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="F180" s="10"/>
-      <c r="G180" s="10"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -3456,8 +3399,8 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -3468,8 +3411,8 @@
       <c r="O181" s="1"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="F182" s="10"/>
-      <c r="G182" s="10"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -3480,8 +3423,8 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="F183" s="10"/>
-      <c r="G183" s="10"/>
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -3492,8 +3435,8 @@
       <c r="O183" s="1"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -3504,8 +3447,8 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="F185" s="10"/>
-      <c r="G185" s="10"/>
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -3516,8 +3459,8 @@
       <c r="O185" s="1"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="F186" s="10"/>
-      <c r="G186" s="10"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -3528,8 +3471,8 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="F187" s="10"/>
-      <c r="G187" s="10"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -3540,8 +3483,8 @@
       <c r="O187" s="1"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="F188" s="10"/>
-      <c r="G188" s="10"/>
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -3552,8 +3495,8 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="F189" s="10"/>
-      <c r="G189" s="10"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -3564,8 +3507,8 @@
       <c r="O189" s="1"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="F190" s="10"/>
-      <c r="G190" s="10"/>
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -3576,8 +3519,8 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="F191" s="10"/>
-      <c r="G191" s="10"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -3588,8 +3531,8 @@
       <c r="O191" s="1"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="F192" s="10"/>
-      <c r="G192" s="10"/>
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -3600,8 +3543,8 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -3612,8 +3555,8 @@
       <c r="O193" s="1"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="F194" s="10"/>
-      <c r="G194" s="10"/>
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -3624,8 +3567,8 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="F195" s="10"/>
-      <c r="G195" s="10"/>
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -3636,8 +3579,8 @@
       <c r="O195" s="1"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="F196" s="10"/>
-      <c r="G196" s="10"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -3648,8 +3591,8 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="F197" s="10"/>
-      <c r="G197" s="10"/>
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -3660,8 +3603,8 @@
       <c r="O197" s="1"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="F198" s="10"/>
-      <c r="G198" s="10"/>
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -3672,8 +3615,8 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="F199" s="10"/>
-      <c r="G199" s="10"/>
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -3684,8 +3627,8 @@
       <c r="O199" s="1"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="F200" s="10"/>
-      <c r="G200" s="10"/>
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -3696,8 +3639,8 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="F201" s="10"/>
-      <c r="G201" s="10"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -3708,8 +3651,8 @@
       <c r="O201" s="1"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="F202" s="10"/>
-      <c r="G202" s="10"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -3720,8 +3663,8 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="F203" s="10"/>
-      <c r="G203" s="10"/>
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -3732,8 +3675,8 @@
       <c r="O203" s="1"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -3744,8 +3687,8 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -3756,8 +3699,8 @@
       <c r="O205" s="1"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -3768,8 +3711,8 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -3780,8 +3723,8 @@
       <c r="O207" s="1"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -3792,8 +3735,8 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -3804,8 +3747,8 @@
       <c r="O209" s="1"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -3816,8 +3759,8 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -3828,8 +3771,8 @@
       <c r="O211" s="1"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -3840,8 +3783,8 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -3852,8 +3795,8 @@
       <c r="O213" s="1"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -3864,8 +3807,8 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -3876,8 +3819,8 @@
       <c r="O215" s="1"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
+      <c r="F216" s="11"/>
+      <c r="G216" s="11"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -3888,8 +3831,8 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
+      <c r="F217" s="11"/>
+      <c r="G217" s="11"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -3900,8 +3843,8 @@
       <c r="O217" s="1"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -3912,8 +3855,8 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -3923,30 +3866,8 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="1"/>
-      <c r="L220" s="1"/>
-      <c r="M220" s="1"/>
-      <c r="N220" s="1"/>
-      <c r="O220" s="1"/>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="1"/>
-      <c r="L221" s="1"/>
-      <c r="M221" s="1"/>
-      <c r="N221" s="1"/>
-      <c r="O221" s="1"/>
-    </row>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -4725,9 +4646,8 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="$A$1:$M$12"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
@@ -4752,727 +4672,723 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="14">
+        <v>4.9910000000000005</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="14">
+        <v>4.99</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4.989800000000001</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4.989700000000001</v>
+      </c>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="13">
-        <v>4.99</v>
-      </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="13">
-        <f t="shared" ref="C3:C6" si="1">C2-0.0001</f>
-        <v>4.9899</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" si="1"/>
-        <v>4.9898</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="1"/>
-        <v>4.9897</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="1"/>
-        <v>4.9896</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="C6" s="14">
+        <v>4.989600000000001</v>
+      </c>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="C10" s="15"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="15"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="15"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="15"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="15"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="15"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="15"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="15"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="15"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="15"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="15"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="15"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="15"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="15"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="15"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="15"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="15"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="15"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="C31" s="15"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="15"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="15"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="15"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="15"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="15"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="15"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="15"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="15"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="15"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="15"/>
+      <c r="C46" s="16"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="15"/>
+      <c r="C47" s="16"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="15"/>
+      <c r="C48" s="16"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="15"/>
+      <c r="C49" s="16"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="15"/>
+      <c r="C50" s="16"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="15"/>
+      <c r="C51" s="16"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="15"/>
+      <c r="C52" s="16"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="15"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="C54" s="15"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="C55" s="15"/>
+      <c r="C55" s="16"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="C56" s="15"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="C57" s="15"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="C58" s="15"/>
+      <c r="C58" s="16"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="C59" s="15"/>
+      <c r="C59" s="16"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="C60" s="15"/>
+      <c r="C60" s="16"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="C61" s="15"/>
+      <c r="C61" s="16"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="C62" s="15"/>
+      <c r="C62" s="16"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="C63" s="15"/>
+      <c r="C63" s="16"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="C64" s="15"/>
+      <c r="C64" s="16"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="C66" s="15"/>
+      <c r="C66" s="16"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="C67" s="15"/>
+      <c r="C67" s="16"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="C68" s="15"/>
+      <c r="C68" s="16"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="C69" s="15"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="C70" s="15"/>
+      <c r="C70" s="16"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="C71" s="15"/>
+      <c r="C71" s="16"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="C72" s="15"/>
+      <c r="C72" s="16"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="C73" s="15"/>
+      <c r="C73" s="16"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="C74" s="15"/>
+      <c r="C74" s="16"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="C75" s="15"/>
+      <c r="C75" s="16"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="C76" s="15"/>
+      <c r="C76" s="16"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="C77" s="15"/>
+      <c r="C77" s="16"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="C78" s="15"/>
+      <c r="C78" s="16"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="C79" s="15"/>
+      <c r="C79" s="16"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="C80" s="15"/>
+      <c r="C80" s="16"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="C81" s="15"/>
+      <c r="C81" s="16"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="C82" s="15"/>
+      <c r="C82" s="16"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="C83" s="15"/>
+      <c r="C83" s="16"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="C84" s="15"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="C85" s="15"/>
+      <c r="C85" s="16"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="C86" s="15"/>
+      <c r="C86" s="16"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="C87" s="15"/>
+      <c r="C87" s="16"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="C88" s="15"/>
+      <c r="C88" s="16"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="C89" s="15"/>
+      <c r="C89" s="16"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="C90" s="15"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="C91" s="15"/>
+      <c r="C91" s="16"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="C92" s="15"/>
+      <c r="C92" s="16"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="C93" s="15"/>
+      <c r="C93" s="16"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="C94" s="15"/>
+      <c r="C94" s="16"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="C95" s="15"/>
+      <c r="C95" s="16"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="C96" s="15"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="C97" s="15"/>
+      <c r="C97" s="16"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="C98" s="15"/>
+      <c r="C98" s="16"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="C99" s="15"/>
+      <c r="C99" s="16"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="C100" s="15"/>
+      <c r="C100" s="16"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="C101" s="15"/>
+      <c r="C101" s="16"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="C102" s="15"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="C103" s="15"/>
+      <c r="C103" s="16"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="C104" s="15"/>
+      <c r="C104" s="16"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="C105" s="15"/>
+      <c r="C105" s="16"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="C106" s="15"/>
+      <c r="C106" s="16"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="C107" s="15"/>
+      <c r="C107" s="16"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="C108" s="15"/>
+      <c r="C108" s="16"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="C109" s="15"/>
+      <c r="C109" s="16"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="C110" s="15"/>
+      <c r="C110" s="16"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="C111" s="15"/>
+      <c r="C111" s="16"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="C112" s="15"/>
+      <c r="C112" s="16"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="C113" s="15"/>
+      <c r="C113" s="16"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="C114" s="15"/>
+      <c r="C114" s="16"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="C115" s="15"/>
+      <c r="C115" s="16"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="C116" s="15"/>
+      <c r="C116" s="16"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="C117" s="15"/>
+      <c r="C117" s="16"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="C118" s="15"/>
+      <c r="C118" s="16"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="C119" s="15"/>
+      <c r="C119" s="16"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="C120" s="15"/>
+      <c r="C120" s="16"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="C121" s="15"/>
+      <c r="C121" s="16"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="C122" s="15"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="C123" s="15"/>
+      <c r="C123" s="16"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="C124" s="15"/>
+      <c r="C124" s="16"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="C125" s="15"/>
+      <c r="C125" s="16"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="C126" s="15"/>
+      <c r="C126" s="16"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="C127" s="15"/>
+      <c r="C127" s="16"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="C128" s="15"/>
+      <c r="C128" s="16"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="C129" s="15"/>
+      <c r="C129" s="16"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="C130" s="15"/>
+      <c r="C130" s="16"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="C131" s="15"/>
+      <c r="C131" s="16"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="C132" s="15"/>
+      <c r="C132" s="16"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="C133" s="15"/>
+      <c r="C133" s="16"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="C134" s="15"/>
+      <c r="C134" s="16"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="C135" s="15"/>
+      <c r="C135" s="16"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="C136" s="15"/>
+      <c r="C136" s="16"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="C137" s="15"/>
+      <c r="C137" s="16"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="C138" s="15"/>
+      <c r="C138" s="16"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="C139" s="15"/>
+      <c r="C139" s="16"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="C140" s="15"/>
+      <c r="C140" s="16"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="C141" s="15"/>
+      <c r="C141" s="16"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="C142" s="15"/>
+      <c r="C142" s="16"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="C143" s="15"/>
+      <c r="C143" s="16"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="C144" s="15"/>
+      <c r="C144" s="16"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="C145" s="15"/>
+      <c r="C145" s="16"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="C146" s="15"/>
+      <c r="C146" s="16"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="C147" s="15"/>
+      <c r="C147" s="16"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="C148" s="15"/>
+      <c r="C148" s="16"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="C149" s="15"/>
+      <c r="C149" s="16"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="C150" s="15"/>
+      <c r="C150" s="16"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="C151" s="15"/>
+      <c r="C151" s="16"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="C152" s="15"/>
+      <c r="C152" s="16"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="C153" s="15"/>
+      <c r="C153" s="16"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="C154" s="15"/>
+      <c r="C154" s="16"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="C155" s="15"/>
+      <c r="C155" s="16"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="C156" s="15"/>
+      <c r="C156" s="16"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="C157" s="15"/>
+      <c r="C157" s="16"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="C158" s="15"/>
+      <c r="C158" s="16"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="C159" s="15"/>
+      <c r="C159" s="16"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="C160" s="15"/>
+      <c r="C160" s="16"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="C161" s="15"/>
+      <c r="C161" s="16"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="C162" s="15"/>
+      <c r="C162" s="16"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="C163" s="15"/>
+      <c r="C163" s="16"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="C164" s="15"/>
+      <c r="C164" s="16"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="C165" s="15"/>
+      <c r="C165" s="16"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="C166" s="15"/>
+      <c r="C166" s="16"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="C167" s="15"/>
+      <c r="C167" s="16"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="C168" s="15"/>
+      <c r="C168" s="16"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="C169" s="15"/>
+      <c r="C169" s="16"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="C170" s="15"/>
+      <c r="C170" s="16"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="C171" s="15"/>
+      <c r="C171" s="16"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="C172" s="15"/>
+      <c r="C172" s="16"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="C173" s="15"/>
+      <c r="C173" s="16"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="C174" s="15"/>
+      <c r="C174" s="16"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="C175" s="15"/>
+      <c r="C175" s="16"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="C176" s="15"/>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="C177" s="15"/>
+      <c r="C177" s="16"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="C178" s="15"/>
+      <c r="C178" s="16"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="C179" s="15"/>
+      <c r="C179" s="16"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="C180" s="15"/>
+      <c r="C180" s="16"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="C181" s="15"/>
+      <c r="C181" s="16"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="C182" s="15"/>
+      <c r="C182" s="16"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="C183" s="15"/>
+      <c r="C183" s="16"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="C184" s="15"/>
+      <c r="C184" s="16"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="C185" s="15"/>
+      <c r="C185" s="16"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="C186" s="15"/>
+      <c r="C186" s="16"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="C187" s="15"/>
+      <c r="C187" s="16"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="C188" s="15"/>
+      <c r="C188" s="16"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="C189" s="15"/>
+      <c r="C189" s="16"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="C190" s="15"/>
+      <c r="C190" s="16"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="C191" s="15"/>
+      <c r="C191" s="16"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="C192" s="15"/>
+      <c r="C192" s="16"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="C193" s="15"/>
+      <c r="C193" s="16"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="C194" s="15"/>
+      <c r="C194" s="16"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="C195" s="15"/>
+      <c r="C195" s="16"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="C196" s="15"/>
+      <c r="C196" s="16"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="C197" s="15"/>
+      <c r="C197" s="16"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="C198" s="15"/>
+      <c r="C198" s="16"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="C199" s="15"/>
+      <c r="C199" s="16"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="C200" s="15"/>
+      <c r="C200" s="16"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="C201" s="15"/>
+      <c r="C201" s="16"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="C202" s="15"/>
+      <c r="C202" s="16"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="C203" s="15"/>
+      <c r="C203" s="16"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="C204" s="15"/>
+      <c r="C204" s="16"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="C205" s="15"/>
+      <c r="C205" s="16"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="C206" s="15"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="C207" s="15"/>
+      <c r="C207" s="16"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="C208" s="15"/>
+      <c r="C208" s="16"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="C209" s="15"/>
+      <c r="C209" s="16"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="C210" s="15"/>
+      <c r="C210" s="16"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="C211" s="15"/>
+      <c r="C211" s="16"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="C212" s="15"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="C213" s="15"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="C214" s="15"/>
+      <c r="C214" s="16"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="C215" s="15"/>
+      <c r="C215" s="16"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="C216" s="15"/>
+      <c r="C216" s="16"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="15"/>
+      <c r="C217" s="16"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="15"/>
+      <c r="C218" s="16"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="15"/>
+      <c r="C219" s="16"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="15"/>
+      <c r="C220" s="16"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
